--- a/Documentation/Working_Documents/LipSync_BOM.xlsx
+++ b/Documentation/Working_Documents/LipSync_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 21-05 LipSync 4/LipSync4/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bradw\GitHub\LipSync\Documentation\Working_Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1782" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{428D312F-2597-4CCD-9180-BCD762F1C469}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E8C4BD-798C-4AFF-A214-1817A39EDCBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM - v4.0" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="367">
   <si>
     <t>Total filament (g)</t>
   </si>
@@ -1125,6 +1125,18 @@
   </si>
   <si>
     <t>4.0</t>
+  </si>
+  <si>
+    <t>LS4_Hub_Stand_Front</t>
+  </si>
+  <si>
+    <t>LS4_Hub_Stand_Leg</t>
+  </si>
+  <si>
+    <t>Front of the default Hub stand</t>
+  </si>
+  <si>
+    <t>Leg for the default Hub stand</t>
   </si>
 </sst>
 </file>
@@ -1532,6 +1544,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1541,7 +1554,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
@@ -1831,38 +1843,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDD599-C177-4BBC-A644-7A0346B01187}">
-  <dimension ref="A1:AG145"/>
+  <dimension ref="A1:AG147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.140625" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.5703125" customWidth="1"/>
-    <col min="15" max="15" width="78.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="89.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="32.33203125" customWidth="1"/>
+    <col min="3" max="3" width="45.44140625" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+    <col min="13" max="13" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5546875" customWidth="1"/>
+    <col min="15" max="15" width="78.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="89.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="35.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:17" ht="36" x14ac:dyDescent="0.65">
       <c r="B1" s="1" t="s">
         <v>308</v>
       </c>
@@ -1879,11 +1891,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="55" t="s">
         <v>362</v>
       </c>
       <c r="E2" t="s">
@@ -1894,28 +1906,28 @@
       </c>
       <c r="G2" s="11"/>
       <c r="I2" s="6">
-        <f>SUM(I54:I70)</f>
-        <v>158</v>
+        <f>SUM(I54:I72)</f>
+        <v>175</v>
       </c>
       <c r="L2" s="22">
-        <f>SUM(L6:L45,L48:L50,L54:L70)</f>
-        <v>176.62886666666662</v>
+        <f>SUM(L6:L45,L48:L50,L54:L72)</f>
+        <v>177.13886666666662</v>
       </c>
       <c r="M2" s="5">
-        <f>SUM(M6:M70)</f>
-        <v>325.8399999999998</v>
+        <f>SUM(M6:M72)</f>
+        <v>326.3499999999998</v>
       </c>
       <c r="N2" s="23">
-        <f>SUM(N54:N70)</f>
-        <v>0.62708333333333344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <f>SUM(N54:N72)</f>
+        <v>0.64652777777777781</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="14" t="s">
         <v>7</v>
       </c>
@@ -1962,12 +1974,12 @@
       </c>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
@@ -1983,7 +1995,7 @@
       <c r="P5" s="45"/>
       <c r="Q5" s="45"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2030,7 +2042,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -2077,7 +2089,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -2124,7 +2136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -2171,7 +2183,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -2218,7 +2230,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>319</v>
       </c>
@@ -2265,7 +2277,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>49</v>
       </c>
@@ -2312,7 +2324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -2359,7 +2371,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>63</v>
       </c>
@@ -2406,7 +2418,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -2453,7 +2465,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -2500,7 +2512,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>109</v>
       </c>
@@ -2544,7 +2556,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -2586,12 +2598,12 @@
         <v>153</v>
       </c>
     </row>
-    <row r="19" spans="1:15" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+    <row r="19" spans="1:15" s="47" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="57" t="s">
         <v>303</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="46"/>
       <c r="G19" s="46"/>
       <c r="K19" s="48"/>
@@ -2599,7 +2611,7 @@
       <c r="M19" s="49"/>
       <c r="O19" s="50"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -2646,7 +2658,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -2693,7 +2705,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -2740,7 +2752,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -2787,7 +2799,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -2834,7 +2846,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>98</v>
       </c>
@@ -2881,7 +2893,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -2928,7 +2940,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>110</v>
       </c>
@@ -2975,7 +2987,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -3022,7 +3034,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -3069,7 +3081,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>125</v>
       </c>
@@ -3116,7 +3128,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -3163,7 +3175,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>136</v>
       </c>
@@ -3210,7 +3222,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -3257,7 +3269,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>158</v>
       </c>
@@ -3304,7 +3316,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>164</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>178</v>
       </c>
@@ -3398,7 +3410,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>167</v>
       </c>
@@ -3445,7 +3457,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>109</v>
       </c>
@@ -3492,7 +3504,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>154</v>
       </c>
@@ -3536,14 +3548,14 @@
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
+    <row r="40" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="58" t="s">
         <v>304</v>
       </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
         <v>299</v>
       </c>
@@ -3587,7 +3599,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>295</v>
       </c>
@@ -3628,7 +3640,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -3672,7 +3684,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
         <v>269</v>
       </c>
@@ -3711,7 +3723,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>109</v>
       </c>
@@ -3755,12 +3767,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="7" t="s">
         <v>8</v>
       </c>
@@ -3801,7 +3813,7 @@
       </c>
       <c r="R47" s="8"/>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>191</v>
       </c>
@@ -3842,7 +3854,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
         <v>194</v>
       </c>
@@ -3874,7 +3886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
         <v>194</v>
       </c>
@@ -3906,12 +3918,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C51" s="20"/>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
     </row>
-    <row r="52" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="18" t="s">
         <v>196</v>
       </c>
@@ -3923,7 +3935,7 @@
       <c r="M52" s="17"/>
       <c r="N52" s="22"/>
     </row>
-    <row r="53" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="7" t="s">
         <v>8</v>
       </c>
@@ -3957,7 +3969,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B54" t="s">
         <v>284</v>
       </c>
@@ -3989,7 +4001,7 @@
         <v>2.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="55" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B55" t="s">
         <v>285</v>
       </c>
@@ -4006,15 +4018,15 @@
         <v>26</v>
       </c>
       <c r="K55" s="32">
-        <f t="shared" ref="K55:K70" si="8">I55/1000*$C$52</f>
+        <f t="shared" ref="K55:K72" si="8">I55/1000*$C$52</f>
         <v>0.77999999999999992</v>
       </c>
       <c r="L55" s="32">
-        <f t="shared" ref="L55:L70" si="9">K55</f>
+        <f t="shared" ref="L55:L72" si="9">K55</f>
         <v>0.77999999999999992</v>
       </c>
       <c r="M55" s="32">
-        <f t="shared" ref="M55:M70" si="10">K55</f>
+        <f t="shared" ref="M55:M72" si="10">K55</f>
         <v>0.77999999999999992</v>
       </c>
       <c r="N55" s="27">
@@ -4023,7 +4035,7 @@
       <c r="Q55" s="43"/>
       <c r="R55" s="43"/>
     </row>
-    <row r="56" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" t="s">
         <v>286</v>
       </c>
@@ -4056,7 +4068,7 @@
       </c>
       <c r="P56" s="43"/>
     </row>
-    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
         <v>288</v>
       </c>
@@ -4088,7 +4100,7 @@
         <v>8.819444444444445E-2</v>
       </c>
     </row>
-    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
         <v>287</v>
       </c>
@@ -4120,76 +4132,76 @@
         <v>9.0277777777777787E-3</v>
       </c>
     </row>
-    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>273</v>
+        <v>363</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>365</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H59">
         <v>1</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K59" s="32">
         <f t="shared" si="8"/>
-        <v>0.09</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="L59" s="32">
         <f t="shared" si="9"/>
-        <v>0.09</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="M59" s="32">
         <f t="shared" si="10"/>
-        <v>0.09</v>
+        <v>0.38999999999999996</v>
       </c>
       <c r="N59" s="27">
-        <v>7.6388888888888886E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+        <v>1.4583333333333332E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>272</v>
+        <v>364</v>
       </c>
       <c r="C60" t="s">
-        <v>233</v>
+        <v>366</v>
       </c>
       <c r="D60" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K60" s="32">
         <f t="shared" si="8"/>
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="L60" s="32">
         <f t="shared" si="9"/>
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="M60" s="32">
         <f t="shared" si="10"/>
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="N60" s="27">
-        <v>7.6388888888888886E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+        <v>4.8611111111111112E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C61" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
@@ -4213,15 +4225,15 @@
         <v>0.09</v>
       </c>
       <c r="N61" s="27">
-        <v>1.3194444444444444E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+        <v>7.6388888888888886E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
@@ -4245,15 +4257,15 @@
         <v>0.09</v>
       </c>
       <c r="N62" s="27">
-        <v>1.3194444444444444E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+        <v>7.6388888888888886E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
@@ -4262,62 +4274,62 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K63" s="32">
         <f t="shared" si="8"/>
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="L63" s="32">
         <f t="shared" si="9"/>
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="M63" s="32">
         <f t="shared" si="10"/>
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="N63" s="27">
-        <v>1.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+        <v>1.3194444444444444E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="C64" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K64" s="32">
         <f t="shared" si="8"/>
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="L64" s="32">
         <f t="shared" si="9"/>
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="M64" s="32">
         <f t="shared" si="10"/>
-        <v>0.03</v>
+        <v>0.09</v>
       </c>
       <c r="N64" s="27">
-        <v>1.3888888888888889E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.3194444444444444E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C65" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
@@ -4326,62 +4338,62 @@
         <v>1</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K65" s="32">
         <f t="shared" si="8"/>
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="L65" s="32">
         <f t="shared" si="9"/>
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="M65" s="32">
         <f t="shared" si="10"/>
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="N65" s="27">
-        <v>2.9861111111111113E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K66" s="32">
         <f t="shared" si="8"/>
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
       <c r="L66" s="32">
         <f t="shared" si="9"/>
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
       <c r="M66" s="32">
         <f t="shared" si="10"/>
-        <v>0.42</v>
+        <v>0.03</v>
       </c>
       <c r="N66" s="27">
-        <v>4.027777777777778E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1.3888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D67" t="s">
         <v>22</v>
@@ -4390,30 +4402,30 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="K67" s="32">
         <f t="shared" si="8"/>
-        <v>0.77999999999999992</v>
+        <v>0.15</v>
       </c>
       <c r="L67" s="32">
         <f t="shared" si="9"/>
-        <v>0.77999999999999992</v>
+        <v>0.15</v>
       </c>
       <c r="M67" s="32">
         <f t="shared" si="10"/>
-        <v>0.77999999999999992</v>
+        <v>0.15</v>
       </c>
       <c r="N67" s="27">
-        <v>8.6805555555555566E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.9861111111111113E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
@@ -4422,30 +4434,30 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K68" s="32">
         <f t="shared" si="8"/>
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="L68" s="32">
         <f t="shared" si="9"/>
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="M68" s="32">
         <f t="shared" si="10"/>
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="N68" s="27">
-        <v>5.2083333333333336E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4.027777777777778E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C69" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D69" t="s">
         <v>22</v>
@@ -4454,30 +4466,30 @@
         <v>1</v>
       </c>
       <c r="I69">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="K69" s="32">
         <f t="shared" si="8"/>
-        <v>0.18</v>
+        <v>0.77999999999999992</v>
       </c>
       <c r="L69" s="32">
         <f t="shared" si="9"/>
-        <v>0.18</v>
+        <v>0.77999999999999992</v>
       </c>
       <c r="M69" s="32">
         <f t="shared" si="10"/>
-        <v>0.18</v>
+        <v>0.77999999999999992</v>
       </c>
       <c r="N69" s="27">
-        <v>2.2916666666666669E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.6805555555555566E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C70" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D70" t="s">
         <v>22</v>
@@ -4486,709 +4498,649 @@
         <v>1</v>
       </c>
       <c r="I70">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K70" s="32">
         <f t="shared" si="8"/>
-        <v>0.65999999999999992</v>
+        <v>0.51</v>
       </c>
       <c r="L70" s="32">
         <f t="shared" si="9"/>
-        <v>0.65999999999999992</v>
+        <v>0.51</v>
       </c>
       <c r="M70" s="32">
         <f t="shared" si="10"/>
+        <v>0.51</v>
+      </c>
+      <c r="N70" s="27">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>281</v>
+      </c>
+      <c r="C71" t="s">
+        <v>239</v>
+      </c>
+      <c r="D71" t="s">
+        <v>22</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>6</v>
+      </c>
+      <c r="K71" s="32">
+        <f t="shared" si="8"/>
+        <v>0.18</v>
+      </c>
+      <c r="L71" s="32">
+        <f t="shared" si="9"/>
+        <v>0.18</v>
+      </c>
+      <c r="M71" s="32">
+        <f t="shared" si="10"/>
+        <v>0.18</v>
+      </c>
+      <c r="N71" s="27">
+        <v>2.2916666666666669E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>283</v>
+      </c>
+      <c r="C72" t="s">
+        <v>242</v>
+      </c>
+      <c r="D72" t="s">
+        <v>22</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>22</v>
+      </c>
+      <c r="K72" s="32">
+        <f t="shared" si="8"/>
         <v>0.65999999999999992</v>
       </c>
-      <c r="N70" s="27">
+      <c r="L72" s="32">
+        <f t="shared" si="9"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="M72" s="32">
+        <f t="shared" si="10"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="N72" s="27">
         <v>0.10208333333333335</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="28" t="s">
+    <row r="73" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-    </row>
-    <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="21" t="s">
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+    </row>
+    <row r="74" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C74" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29" t="s">
+      <c r="D74" s="29"/>
+      <c r="E74" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F74" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="G72" s="29"/>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="31" t="s">
+      <c r="G74" s="29"/>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B75" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C75" t="s">
         <v>307</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E75" t="s">
         <v>23</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F75" t="s">
         <v>201</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G75" t="s">
         <v>202</v>
       </c>
-      <c r="H73">
-        <v>1</v>
-      </c>
-      <c r="I73">
-        <v>1</v>
-      </c>
-      <c r="J73">
-        <f t="shared" ref="J73:J75" si="11">IF(H73&gt;0,CEILING(H73/I73,1),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K73" s="25">
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <f t="shared" ref="J75:J77" si="11">IF(H75&gt;0,CEILING(H75/I75,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K75" s="25">
         <v>8.6300000000000008</v>
       </c>
-      <c r="L73" s="41">
-        <f>IF(H73&gt;0,K73/I73*H73,0)</f>
+      <c r="L75" s="41">
+        <f>IF(H75&gt;0,K75/I75*H75,0)</f>
         <v>8.6300000000000008</v>
       </c>
-      <c r="M73" s="32">
-        <f t="shared" ref="M73:M79" si="12">J73*K73</f>
+      <c r="M75" s="32">
+        <f t="shared" ref="M75:M81" si="12">J75*K75</f>
         <v>8.6300000000000008</v>
       </c>
-      <c r="O73" s="33" t="s">
+      <c r="O75" s="33" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
         <v>27</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C76" t="s">
         <v>310</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E76" t="s">
         <v>23</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F76" t="s">
         <v>201</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G76" t="s">
         <v>204</v>
       </c>
-      <c r="H74">
-        <v>1</v>
-      </c>
-      <c r="I74">
-        <v>1</v>
-      </c>
-      <c r="J74">
-        <v>1</v>
-      </c>
-      <c r="K74" s="12">
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" s="12">
         <v>18.13</v>
       </c>
-      <c r="L74" s="41">
-        <f t="shared" ref="L74:L84" si="13">IF(H74&gt;0,K74/I74*H74,0)</f>
+      <c r="L76" s="41">
+        <f t="shared" ref="L76:L86" si="13">IF(H76&gt;0,K76/I76*H76,0)</f>
         <v>18.13</v>
       </c>
-      <c r="M74" s="32">
+      <c r="M76" s="32">
         <f t="shared" si="12"/>
         <v>18.13</v>
       </c>
-      <c r="O74" s="33" t="s">
+      <c r="O76" s="33" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>30</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C77" t="s">
         <v>311</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E77" t="s">
         <v>23</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F77" t="s">
         <v>201</v>
       </c>
-      <c r="G75" s="24" t="s">
+      <c r="G77" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>1</v>
-      </c>
-      <c r="J75">
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="K75" s="12">
+      <c r="K77" s="12">
         <v>10.08</v>
       </c>
-      <c r="L75" s="41">
+      <c r="L77" s="41">
         <f t="shared" si="13"/>
         <v>10.08</v>
       </c>
-      <c r="M75" s="32">
+      <c r="M77" s="32">
         <f t="shared" si="12"/>
         <v>10.08</v>
       </c>
-      <c r="O75" s="33" t="s">
+      <c r="O77" s="33" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>55</v>
       </c>
-      <c r="B76" s="30" t="s">
+      <c r="B78" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C78" t="s">
         <v>208</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E78" t="s">
         <v>23</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F78" t="s">
         <v>201</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G78" t="s">
         <v>209</v>
       </c>
-      <c r="H76">
-        <v>1</v>
-      </c>
-      <c r="I76">
-        <v>1</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76" s="25">
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" s="25">
         <v>1.38</v>
       </c>
-      <c r="L76" s="41">
+      <c r="L78" s="41">
         <f t="shared" si="13"/>
         <v>1.38</v>
       </c>
-      <c r="M76" s="32">
+      <c r="M78" s="32">
         <f t="shared" si="12"/>
         <v>1.38</v>
       </c>
-      <c r="O76" s="8" t="s">
+      <c r="O78" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
         <v>49</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B79" t="s">
         <v>50</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C79" t="s">
         <v>51</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E79" t="s">
         <v>23</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F79" t="s">
         <v>201</v>
       </c>
-      <c r="G77" s="38" t="s">
+      <c r="G79" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="H77">
-        <v>1</v>
-      </c>
-      <c r="I77">
-        <v>1</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77" s="25">
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" s="25">
         <v>1.38</v>
       </c>
-      <c r="L77" s="41">
-        <f>IF(H77&gt;0,K77/I77*H77,0)</f>
+      <c r="L79" s="41">
+        <f>IF(H79&gt;0,K79/I79*H79,0)</f>
         <v>1.38</v>
       </c>
-      <c r="M77" s="32">
-        <f>J77*K77</f>
+      <c r="M79" s="32">
+        <f>J79*K79</f>
         <v>1.38</v>
       </c>
-      <c r="O77" s="8" t="s">
+      <c r="O79" s="8" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
         <v>49</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B80" t="s">
         <v>50</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C80" t="s">
         <v>51</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E80" t="s">
         <v>52</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F80" t="s">
         <v>210</v>
       </c>
-      <c r="H78">
-        <v>1</v>
-      </c>
-      <c r="I78">
-        <v>1</v>
-      </c>
-      <c r="J78">
-        <v>1</v>
-      </c>
-      <c r="K78" s="25">
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="25">
         <v>1.95</v>
       </c>
-      <c r="L78" s="41">
+      <c r="L80" s="41">
         <f t="shared" si="13"/>
         <v>1.95</v>
       </c>
-      <c r="M78" s="32">
+      <c r="M80" s="32">
         <f t="shared" si="12"/>
         <v>1.95</v>
       </c>
-      <c r="O78" s="8" t="s">
+      <c r="O80" s="8" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
         <v>211</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C81" t="s">
         <v>138</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E81" t="s">
         <v>212</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F81" t="s">
         <v>24</v>
       </c>
-      <c r="G79" s="24" t="s">
+      <c r="G81" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="H79">
-        <v>1</v>
-      </c>
-      <c r="I79">
-        <v>1</v>
-      </c>
-      <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79" s="12">
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81" s="12">
         <v>0.72</v>
       </c>
-      <c r="L79" s="41">
+      <c r="L81" s="41">
         <f t="shared" si="13"/>
         <v>0.72</v>
       </c>
-      <c r="M79" s="32">
+      <c r="M81" s="32">
         <f t="shared" si="12"/>
         <v>0.72</v>
       </c>
-      <c r="O79" s="33" t="s">
+      <c r="O81" s="33" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
         <v>64</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C82" t="s">
         <v>65</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E82" t="s">
         <v>52</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F82" t="s">
         <v>201</v>
       </c>
-      <c r="G80" s="24" t="s">
+      <c r="G82" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="H80">
-        <v>1</v>
-      </c>
-      <c r="I80">
-        <v>1</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" s="25">
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" s="25">
         <v>2.83</v>
       </c>
-      <c r="L80" s="41">
+      <c r="L82" s="41">
         <f t="shared" si="13"/>
         <v>2.83</v>
       </c>
-      <c r="M80" s="32">
-        <f>J80*K80</f>
+      <c r="M82" s="32">
+        <f>J82*K82</f>
         <v>2.83</v>
       </c>
-      <c r="O80" t="s">
+      <c r="O82" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+    <row r="83" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
         <v>217</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C83" t="s">
         <v>70</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E83" t="s">
         <v>71</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F83" t="s">
         <v>201</v>
       </c>
-      <c r="G81" s="24" t="s">
+      <c r="G83" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="H81">
+      <c r="H83">
         <v>2</v>
       </c>
-      <c r="I81">
-        <v>1</v>
-      </c>
-      <c r="J81">
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
         <v>2</v>
       </c>
-      <c r="K81" s="9">
+      <c r="K83" s="9">
         <v>1.46</v>
       </c>
-      <c r="L81" s="41">
+      <c r="L83" s="41">
         <f t="shared" si="13"/>
         <v>2.92</v>
       </c>
-      <c r="M81" s="32">
-        <f>J81*K81</f>
+      <c r="M83" s="32">
+        <f>J83*K83</f>
         <v>2.92</v>
       </c>
-      <c r="O81" t="s">
+      <c r="O83" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
         <v>75</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C84" t="s">
         <v>76</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E84" t="s">
         <v>220</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F84" t="s">
         <v>201</v>
       </c>
-      <c r="G82" s="24" t="s">
+      <c r="G84" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82" s="9">
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84" s="9">
         <v>5.34</v>
       </c>
-      <c r="L82" s="41">
+      <c r="L84" s="41">
         <f t="shared" si="13"/>
         <v>5.34</v>
       </c>
-      <c r="M82" s="35">
-        <f>J82*K82</f>
+      <c r="M84" s="35">
+        <f>J84*K84</f>
         <v>5.34</v>
       </c>
-      <c r="O82" s="8" t="s">
+      <c r="O84" s="8" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
         <v>75</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C85" t="s">
         <v>76</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E85" t="s">
         <v>257</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F85" t="s">
         <v>24</v>
       </c>
-      <c r="G83" s="24" t="s">
+      <c r="G85" s="24" t="s">
         <v>258</v>
       </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>1</v>
-      </c>
-      <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83" s="9">
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85" s="9">
         <v>6.4</v>
       </c>
-      <c r="L83" s="41">
-        <f>IF(H83&gt;0,K83/I83*H83,0)</f>
+      <c r="L85" s="41">
+        <f>IF(H85&gt;0,K85/I85*H85,0)</f>
         <v>6.4</v>
       </c>
-      <c r="M83" s="35">
-        <f>J83*K83</f>
+      <c r="M85" s="35">
+        <f>J85*K85</f>
         <v>6.4</v>
       </c>
-      <c r="O83" s="8"/>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" t="s">
+      <c r="O85" s="8"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
         <v>90</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C86" t="s">
         <v>90</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E86" t="s">
         <v>91</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F86" t="s">
         <v>201</v>
       </c>
-      <c r="G84" s="24" t="s">
+      <c r="G86" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="H84">
+      <c r="H86">
         <v>3</v>
       </c>
-      <c r="I84">
-        <v>1</v>
-      </c>
-      <c r="J84">
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
         <v>3</v>
       </c>
-      <c r="K84" s="9">
+      <c r="K86" s="9">
         <v>2.31</v>
       </c>
-      <c r="L84" s="41">
+      <c r="L86" s="41">
         <f t="shared" si="13"/>
         <v>6.93</v>
       </c>
-      <c r="M84" s="35">
-        <f>J84*K84</f>
+      <c r="M86" s="35">
+        <f>J86*K86</f>
         <v>6.93</v>
       </c>
-      <c r="O84" s="8" t="s">
+      <c r="O86" s="8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="85" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85"/>
-      <c r="B85" t="s">
-        <v>121</v>
-      </c>
-      <c r="C85" t="s">
-        <v>122</v>
-      </c>
-      <c r="D85"/>
-      <c r="E85" t="s">
-        <v>224</v>
-      </c>
-      <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>225</v>
-      </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
-      <c r="I85">
-        <v>1</v>
-      </c>
-      <c r="J85">
-        <v>2</v>
-      </c>
-      <c r="K85" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="L85" s="41">
-        <f>IF(H85&gt;0,K85/I85*H85,0)</f>
-        <v>1.78</v>
-      </c>
-      <c r="M85" s="32">
-        <f t="shared" ref="M85:M89" si="14">J85*K85</f>
-        <v>1.78</v>
-      </c>
-      <c r="N85"/>
-      <c r="O85" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="P85"/>
-      <c r="Q85"/>
-      <c r="R85"/>
-      <c r="S85"/>
-      <c r="T85"/>
-      <c r="U85"/>
-      <c r="V85"/>
-      <c r="W85"/>
-      <c r="X85"/>
-      <c r="Y85"/>
-      <c r="Z85"/>
-      <c r="AA85"/>
-      <c r="AB85"/>
-      <c r="AC85"/>
-      <c r="AD85"/>
-      <c r="AE85"/>
-      <c r="AF85"/>
-      <c r="AG85"/>
-    </row>
-    <row r="86" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86"/>
-      <c r="B86" t="s">
-        <v>349</v>
-      </c>
-      <c r="C86" t="s">
-        <v>348</v>
-      </c>
-      <c r="D86" t="s">
-        <v>57</v>
-      </c>
-      <c r="E86" t="s">
-        <v>347</v>
-      </c>
-      <c r="F86" t="s">
-        <v>201</v>
-      </c>
-      <c r="G86" s="24"/>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86" s="16">
-        <v>1</v>
-      </c>
-      <c r="J86">
-        <v>1</v>
-      </c>
-      <c r="K86" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="L86" s="41">
-        <f>IF(H86&gt;0,K86/H86*I86,0)</f>
-        <v>0.89</v>
-      </c>
-      <c r="M86" s="32">
-        <f t="shared" si="14"/>
-        <v>0.89</v>
-      </c>
-      <c r="N86"/>
-      <c r="O86" s="33" t="s">
-        <v>346</v>
-      </c>
-      <c r="P86"/>
-      <c r="Q86"/>
-      <c r="R86"/>
-      <c r="S86"/>
-      <c r="T86"/>
-      <c r="U86"/>
-      <c r="V86"/>
-      <c r="W86"/>
-      <c r="X86"/>
-      <c r="Y86"/>
-      <c r="Z86"/>
-      <c r="AA86"/>
-      <c r="AB86"/>
-      <c r="AC86"/>
-      <c r="AD86"/>
-      <c r="AE86"/>
-      <c r="AF86"/>
-      <c r="AG86"/>
-    </row>
-    <row r="87" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>354</v>
+        <v>121</v>
       </c>
       <c r="C87" t="s">
-        <v>354</v>
-      </c>
-      <c r="D87" t="s">
-        <v>170</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D87"/>
       <c r="E87" t="s">
-        <v>355</v>
+        <v>224</v>
       </c>
       <c r="F87" t="s">
-        <v>201</v>
-      </c>
-      <c r="G87" s="54" t="s">
-        <v>356</v>
+        <v>24</v>
+      </c>
+      <c r="G87" s="24" t="s">
+        <v>225</v>
       </c>
       <c r="H87">
-        <v>6</v>
-      </c>
-      <c r="I87" s="16">
+        <v>2</v>
+      </c>
+      <c r="I87">
         <v>1</v>
       </c>
       <c r="J87">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K87" s="12">
-        <v>8.5999999999999993E-2</v>
-      </c>
-      <c r="L87" s="52">
-        <f>IF(H87&gt;0,K87/H87*I87,0)</f>
-        <v>1.4333333333333332E-2</v>
-      </c>
-      <c r="M87" s="25">
-        <f t="shared" si="14"/>
-        <v>0.51600000000000001</v>
+        <v>0.89</v>
+      </c>
+      <c r="L87" s="41">
+        <f>IF(H87&gt;0,K87/I87*H87,0)</f>
+        <v>1.78</v>
+      </c>
+      <c r="M87" s="32">
+        <f t="shared" ref="M87:M91" si="14">J87*K87</f>
+        <v>1.78</v>
       </c>
       <c r="N87"/>
       <c r="O87" s="33" t="s">
-        <v>353</v>
+        <v>226</v>
       </c>
       <c r="P87"/>
       <c r="Q87"/>
@@ -5209,49 +5161,47 @@
       <c r="AF87"/>
       <c r="AG87"/>
     </row>
-    <row r="88" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88"/>
       <c r="B88" t="s">
-        <v>159</v>
+        <v>349</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
+        <v>348</v>
       </c>
       <c r="D88" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="E88" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" s="54" t="s">
-        <v>358</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="G88" s="24"/>
       <c r="H88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I88" s="16">
         <v>1</v>
       </c>
       <c r="J88">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K88" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="L88" s="52">
+        <v>0.89</v>
+      </c>
+      <c r="L88" s="41">
         <f>IF(H88&gt;0,K88/H88*I88,0)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="M88" s="25">
+        <v>0.89</v>
+      </c>
+      <c r="M88" s="32">
         <f t="shared" si="14"/>
-        <v>1.2000000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="N88"/>
       <c r="O88" s="33" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="P88"/>
       <c r="Q88"/>
@@ -5272,48 +5222,50 @@
       <c r="AF88"/>
       <c r="AG88"/>
     </row>
-    <row r="89" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89"/>
       <c r="B89" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="C89" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="E89" t="s">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="F89" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="G89" s="54" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I89" s="16">
         <v>1</v>
       </c>
       <c r="J89">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K89" s="12">
-        <v>0.96</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="L89" s="52">
         <f>IF(H89&gt;0,K89/H89*I89,0)</f>
-        <v>0.96</v>
+        <v>1.4333333333333332E-2</v>
       </c>
       <c r="M89" s="25">
         <f t="shared" si="14"/>
-        <v>0.96</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="N89"/>
-      <c r="O89" s="33"/>
+      <c r="O89" s="33" t="s">
+        <v>353</v>
+      </c>
       <c r="P89"/>
       <c r="Q89"/>
       <c r="R89"/>
@@ -5333,22 +5285,50 @@
       <c r="AF89"/>
       <c r="AG89"/>
     </row>
-    <row r="90" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90"/>
-      <c r="G90" s="54"/>
-      <c r="H90"/>
-      <c r="I90" s="16"/>
-      <c r="J90"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="52"/>
-      <c r="M90" s="25"/>
+      <c r="B90" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" t="s">
+        <v>159</v>
+      </c>
+      <c r="D90" t="s">
+        <v>170</v>
+      </c>
+      <c r="E90" t="s">
+        <v>355</v>
+      </c>
+      <c r="F90" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="H90">
+        <v>6</v>
+      </c>
+      <c r="I90" s="16">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>6</v>
+      </c>
+      <c r="K90" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="L90" s="52">
+        <f>IF(H90&gt;0,K90/H90*I90,0)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M90" s="25">
+        <f t="shared" si="14"/>
+        <v>1.2000000000000002</v>
+      </c>
       <c r="N90"/>
-      <c r="O90" s="33"/>
+      <c r="O90" s="33" t="s">
+        <v>357</v>
+      </c>
       <c r="P90"/>
       <c r="Q90"/>
       <c r="R90"/>
@@ -5368,20 +5348,46 @@
       <c r="AF90"/>
       <c r="AG90"/>
     </row>
-    <row r="91" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91"/>
-      <c r="B91"/>
-      <c r="C91"/>
-      <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91"/>
-      <c r="G91" s="54"/>
-      <c r="H91"/>
-      <c r="I91" s="16"/>
-      <c r="J91"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="52"/>
-      <c r="M91" s="25"/>
+      <c r="B91" t="s">
+        <v>359</v>
+      </c>
+      <c r="C91" t="s">
+        <v>360</v>
+      </c>
+      <c r="D91" t="s">
+        <v>57</v>
+      </c>
+      <c r="E91" t="s">
+        <v>212</v>
+      </c>
+      <c r="F91" t="s">
+        <v>24</v>
+      </c>
+      <c r="G91" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91" s="16">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" s="12">
+        <v>0.96</v>
+      </c>
+      <c r="L91" s="52">
+        <f>IF(H91&gt;0,K91/H91*I91,0)</f>
+        <v>0.96</v>
+      </c>
+      <c r="M91" s="25">
+        <f t="shared" si="14"/>
+        <v>0.96</v>
+      </c>
       <c r="N91"/>
       <c r="O91" s="33"/>
       <c r="P91"/>
@@ -5403,261 +5409,249 @@
       <c r="AF91"/>
       <c r="AG91"/>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" t="s">
+    <row r="92" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+      <c r="G92" s="54"/>
+      <c r="H92"/>
+      <c r="I92" s="16"/>
+      <c r="J92"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="25"/>
+      <c r="N92"/>
+      <c r="O92" s="33"/>
+      <c r="P92"/>
+      <c r="Q92"/>
+      <c r="R92"/>
+      <c r="S92"/>
+      <c r="T92"/>
+      <c r="U92"/>
+      <c r="V92"/>
+      <c r="W92"/>
+      <c r="X92"/>
+      <c r="Y92"/>
+      <c r="Z92"/>
+      <c r="AA92"/>
+      <c r="AB92"/>
+      <c r="AC92"/>
+      <c r="AD92"/>
+      <c r="AE92"/>
+      <c r="AF92"/>
+      <c r="AG92"/>
+    </row>
+    <row r="93" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93"/>
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+      <c r="G93" s="54"/>
+      <c r="H93"/>
+      <c r="I93" s="16"/>
+      <c r="J93"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="52"/>
+      <c r="M93" s="25"/>
+      <c r="N93"/>
+      <c r="O93" s="33"/>
+      <c r="P93"/>
+      <c r="Q93"/>
+      <c r="R93"/>
+      <c r="S93"/>
+      <c r="T93"/>
+      <c r="U93"/>
+      <c r="V93"/>
+      <c r="W93"/>
+      <c r="X93"/>
+      <c r="Y93"/>
+      <c r="Z93"/>
+      <c r="AA93"/>
+      <c r="AB93"/>
+      <c r="AC93"/>
+      <c r="AD93"/>
+      <c r="AE93"/>
+      <c r="AF93"/>
+      <c r="AG93"/>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
         <v>227</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F95" t="s">
         <v>201</v>
       </c>
-      <c r="H93">
-        <v>1</v>
-      </c>
-      <c r="I93">
-        <v>1</v>
-      </c>
-      <c r="J93">
-        <f t="shared" ref="J93" si="15">IF(H93&gt;0,CEILING(H93/I93,1),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K93" s="25">
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ref="J95" si="15">IF(H95&gt;0,CEILING(H95/I95,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K95" s="25">
         <v>20</v>
       </c>
-      <c r="L93" s="32">
-        <f>IF(H93&gt;0,K93/I93,0)</f>
+      <c r="L95" s="32">
+        <f>IF(H95&gt;0,K95/I95,0)</f>
         <v>20</v>
       </c>
-      <c r="M93" s="32">
-        <f t="shared" ref="M93" si="16">J93*K93</f>
+      <c r="M95" s="32">
+        <f t="shared" ref="M95" si="16">J95*K95</f>
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>20</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B97" t="s">
         <v>21</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C97" t="s">
         <v>307</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D97" t="s">
         <v>22</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E97" t="s">
         <v>23</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F97" t="s">
         <v>23</v>
       </c>
-      <c r="G95" s="51">
+      <c r="G97" s="51">
         <v>4366</v>
       </c>
-      <c r="H95">
-        <v>1</v>
-      </c>
-      <c r="I95">
-        <v>1</v>
-      </c>
-      <c r="J95">
-        <f>IF(H95&gt;0,CEILING(H95/I95,1),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K95" s="12"/>
-      <c r="L95" s="41">
-        <f t="shared" ref="L95:L97" si="17">IF(H95&gt;0,K95/I95*H95,0)</f>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <f>IF(H97&gt;0,CEILING(H97/I97,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K97" s="12"/>
+      <c r="L97" s="41">
+        <f t="shared" ref="L97:L99" si="17">IF(H97&gt;0,K97/I97*H97,0)</f>
         <v>0</v>
       </c>
-      <c r="M95" s="41">
-        <f>J95*K95</f>
+      <c r="M97" s="41">
+        <f>J97*K97</f>
         <v>0</v>
       </c>
-      <c r="O95" s="33" t="s">
+      <c r="O97" s="33" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
         <v>26</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B98" t="s">
         <v>27</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C98" t="s">
         <v>310</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D98" t="s">
         <v>22</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E98" t="s">
         <v>23</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F98" t="s">
         <v>23</v>
       </c>
-      <c r="G96" s="51">
+      <c r="G98" s="51">
         <v>4414</v>
       </c>
-      <c r="H96">
-        <v>1</v>
-      </c>
-      <c r="I96">
-        <v>1</v>
-      </c>
-      <c r="J96">
-        <f t="shared" ref="J96:J97" si="18">IF(H96&gt;0,CEILING(H96/I96,1),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K96" s="12"/>
-      <c r="L96" s="41">
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <f t="shared" ref="J98:J99" si="18">IF(H98&gt;0,CEILING(H98/I98,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K98" s="12"/>
+      <c r="L98" s="41">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M96" s="41">
-        <f t="shared" ref="M96:M97" si="19">J96*K96</f>
+      <c r="M98" s="41">
+        <f t="shared" ref="M98:M99" si="19">J98*K98</f>
         <v>0</v>
       </c>
-      <c r="O96" s="33" t="s">
+      <c r="O98" s="33" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>29</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B99" t="s">
         <v>30</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C99" t="s">
         <v>311</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D99" t="s">
         <v>22</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E99" t="s">
         <v>23</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F99" t="s">
         <v>23</v>
       </c>
-      <c r="G97" s="51">
+      <c r="G99" s="51">
         <v>4633</v>
       </c>
-      <c r="H97">
-        <v>1</v>
-      </c>
-      <c r="I97">
-        <v>1</v>
-      </c>
-      <c r="J97">
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="K97" s="12"/>
-      <c r="L97" s="41">
+      <c r="K99" s="12"/>
+      <c r="L99" s="41">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="M97" s="41">
+      <c r="M99" s="41">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="O97" s="33" t="s">
+      <c r="O99" s="33" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>49</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B100" t="s">
         <v>50</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C100" t="s">
         <v>51</v>
-      </c>
-      <c r="E98" t="s">
-        <v>23</v>
-      </c>
-      <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" s="51">
-        <v>4399</v>
-      </c>
-      <c r="H98">
-        <v>1</v>
-      </c>
-      <c r="I98">
-        <v>1</v>
-      </c>
-      <c r="J98">
-        <v>1</v>
-      </c>
-      <c r="K98" s="25"/>
-      <c r="L98" s="41">
-        <f>IF(H98&gt;0,K98/I98*H98,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M98" s="32">
-        <f>J98*K98</f>
-        <v>0</v>
-      </c>
-      <c r="O98" s="8" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>55</v>
-      </c>
-      <c r="B99" t="s">
-        <v>56</v>
-      </c>
-      <c r="C99" t="s">
-        <v>208</v>
-      </c>
-      <c r="E99" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G99">
-        <v>4210</v>
-      </c>
-      <c r="H99">
-        <v>1</v>
-      </c>
-      <c r="I99">
-        <v>1</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
-      </c>
-      <c r="K99" s="25"/>
-      <c r="L99" s="41">
-        <f>IF(H99&gt;0,K99/I99*H99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M99" s="32">
-        <f>J99*K99</f>
-        <v>0</v>
-      </c>
-      <c r="O99" s="8" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>44</v>
-      </c>
-      <c r="B100" t="s">
-        <v>318</v>
-      </c>
-      <c r="C100" t="s">
-        <v>326</v>
       </c>
       <c r="E100" t="s">
         <v>23</v>
@@ -5665,8 +5659,8 @@
       <c r="F100" t="s">
         <v>23</v>
       </c>
-      <c r="G100">
-        <v>4209</v>
+      <c r="G100" s="51">
+        <v>4399</v>
       </c>
       <c r="H100">
         <v>1</v>
@@ -5677,6 +5671,7 @@
       <c r="J100">
         <v>1</v>
       </c>
+      <c r="K100" s="25"/>
       <c r="L100" s="41">
         <f>IF(H100&gt;0,K100/I100*H100,0)</f>
         <v>0</v>
@@ -5686,30 +5681,27 @@
         <v>0</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C101" t="s">
-        <v>320</v>
-      </c>
-      <c r="D101" t="s">
-        <v>57</v>
+        <v>208</v>
       </c>
       <c r="E101" t="s">
         <v>23</v>
       </c>
       <c r="F101" t="s">
-        <v>24</v>
-      </c>
-      <c r="G101" s="51">
-        <v>938</v>
+        <v>23</v>
+      </c>
+      <c r="G101">
+        <v>4210</v>
       </c>
       <c r="H101">
         <v>1</v>
@@ -5717,32 +5709,31 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101" s="40">
-        <f t="shared" ref="J101" si="20">IF(H101&gt;0,CEILING(H101/I101,1),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K101" s="12"/>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" s="25"/>
       <c r="L101" s="41">
-        <f t="shared" ref="L101" si="21">IF(H101&gt;0,K101/I101*H101,0)</f>
+        <f>IF(H101&gt;0,K101/I101*H101,0)</f>
         <v>0</v>
       </c>
-      <c r="M101" s="41">
-        <f t="shared" ref="M101" si="22">J101*K101</f>
+      <c r="M101" s="32">
+        <f>J101*K101</f>
         <v>0</v>
       </c>
-      <c r="O101" s="33" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O101" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>44</v>
+      </c>
       <c r="B102" t="s">
-        <v>351</v>
-      </c>
-      <c r="C102" s="53" t="s">
-        <v>352</v>
-      </c>
-      <c r="D102" t="s">
-        <v>57</v>
+        <v>318</v>
+      </c>
+      <c r="C102" t="s">
+        <v>326</v>
       </c>
       <c r="E102" t="s">
         <v>23</v>
@@ -5750,440 +5741,525 @@
       <c r="F102" t="s">
         <v>23</v>
       </c>
-      <c r="G102" s="51">
+      <c r="G102">
+        <v>4209</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="L102" s="41">
+        <f>IF(H102&gt;0,K102/I102*H102,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="32">
+        <f>J102*K102</f>
+        <v>0</v>
+      </c>
+      <c r="O102" s="8" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>110</v>
+      </c>
+      <c r="B103" t="s">
+        <v>111</v>
+      </c>
+      <c r="C103" t="s">
+        <v>320</v>
+      </c>
+      <c r="D103" t="s">
+        <v>57</v>
+      </c>
+      <c r="E103" t="s">
+        <v>23</v>
+      </c>
+      <c r="F103" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="51">
+        <v>938</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" s="40">
+        <f t="shared" ref="J103" si="20">IF(H103&gt;0,CEILING(H103/I103,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K103" s="12"/>
+      <c r="L103" s="41">
+        <f t="shared" ref="L103" si="21">IF(H103&gt;0,K103/I103*H103,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="41">
+        <f t="shared" ref="M103" si="22">J103*K103</f>
+        <v>0</v>
+      </c>
+      <c r="O103" s="33" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>351</v>
+      </c>
+      <c r="C104" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="D104" t="s">
+        <v>57</v>
+      </c>
+      <c r="E104" t="s">
+        <v>23</v>
+      </c>
+      <c r="F104" t="s">
+        <v>23</v>
+      </c>
+      <c r="G104" s="51">
         <v>1119</v>
       </c>
-      <c r="H102">
+      <c r="H104">
         <v>2</v>
       </c>
-      <c r="I102">
+      <c r="I104">
         <v>10</v>
       </c>
-      <c r="J102" s="40">
-        <v>1</v>
-      </c>
-      <c r="K102" s="12"/>
-      <c r="L102" s="41">
-        <f t="shared" ref="L102:L103" si="23">IF(H102&gt;0,K102/I102*H102,0)</f>
+      <c r="J104" s="40">
+        <v>1</v>
+      </c>
+      <c r="K104" s="12"/>
+      <c r="L104" s="41">
+        <f t="shared" ref="L104:L105" si="23">IF(H104&gt;0,K104/I104*H104,0)</f>
         <v>0</v>
       </c>
-      <c r="M102" s="41">
-        <f t="shared" ref="M102:M103" si="24">J102*K102</f>
+      <c r="M104" s="41">
+        <f t="shared" ref="M104:M105" si="24">J104*K104</f>
         <v>0</v>
       </c>
-      <c r="O102" s="33" t="s">
+      <c r="O104" s="33" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C103" s="53"/>
-      <c r="G103" s="51"/>
-      <c r="J103" s="40"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="52">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C105" s="53"/>
+      <c r="G105" s="51"/>
+      <c r="J105" s="40"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="52">
         <f t="shared" si="23"/>
         <v>0</v>
       </c>
-      <c r="M103" s="52">
+      <c r="M105" s="52">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="O103" s="33"/>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="O105" s="33"/>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>63</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B107" t="s">
         <v>64</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C107" t="s">
         <v>65</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D107" t="s">
         <v>22</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E107" t="s">
         <v>52</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F107" t="s">
         <v>323</v>
       </c>
-      <c r="G105" s="24"/>
-      <c r="H105">
-        <v>1</v>
-      </c>
-      <c r="I105">
+      <c r="G107" s="24"/>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
         <v>2</v>
       </c>
-      <c r="J105" s="40">
-        <f t="shared" ref="J105:J115" si="25">IF(H105&gt;0,CEILING(H105/I105,1),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K105" s="12"/>
-      <c r="L105" s="41">
-        <f t="shared" ref="L105:L115" si="26">IF(H105&gt;0,K105/I105*H105,0)</f>
+      <c r="J107" s="40">
+        <f t="shared" ref="J107:J117" si="25">IF(H107&gt;0,CEILING(H107/I107,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K107" s="12"/>
+      <c r="L107" s="41">
+        <f t="shared" ref="L107:L117" si="26">IF(H107&gt;0,K107/I107*H107,0)</f>
         <v>0</v>
       </c>
-      <c r="M105" s="41">
-        <f t="shared" ref="M105:M115" si="27">J105*K105</f>
+      <c r="M107" s="41">
+        <f t="shared" ref="M107:M117" si="27">J107*K107</f>
         <v>0</v>
       </c>
-      <c r="O105" s="33" t="s">
+      <c r="O107" s="33" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>142</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B108" t="s">
         <v>143</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C108" t="s">
         <v>144</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D108" t="s">
         <v>57</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E108" t="s">
         <v>52</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F108" t="s">
         <v>323</v>
       </c>
-      <c r="G106" s="24" t="s">
+      <c r="G108" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="H106">
-        <v>1</v>
-      </c>
-      <c r="I106">
-        <v>1</v>
-      </c>
-      <c r="J106" s="40">
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" s="40">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="K106" s="12"/>
-      <c r="L106" s="41">
+      <c r="K108" s="12"/>
+      <c r="L108" s="41">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M106" s="41">
+      <c r="M108" s="41">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="O106" s="33" t="s">
+      <c r="O108" s="33" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J107" s="40">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J109" s="40">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L107" s="41">
+      <c r="L109" s="41">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M107" s="41">
+      <c r="M109" s="41">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
         <v>333</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C110" t="s">
         <v>327</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D110" t="s">
         <v>264</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E110" t="s">
         <v>334</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F110" t="s">
         <v>149</v>
       </c>
-      <c r="H108">
+      <c r="H110">
         <v>6</v>
       </c>
-      <c r="I108">
+      <c r="I110">
         <v>100</v>
       </c>
-      <c r="J108" s="40">
+      <c r="J110" s="40">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="K108">
+      <c r="K110">
         <v>43.31</v>
       </c>
-      <c r="L108" s="41">
+      <c r="L110" s="41">
         <f t="shared" si="26"/>
         <v>2.5986000000000002</v>
       </c>
-      <c r="M108" s="41">
+      <c r="M110" s="41">
         <f t="shared" si="27"/>
         <v>43.31</v>
       </c>
-      <c r="O108" t="s">
+      <c r="O110" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
         <v>295</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C111" t="s">
         <v>295</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D111" t="s">
         <v>264</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E111" t="s">
         <v>341</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F111" t="s">
         <v>149</v>
       </c>
-      <c r="H109">
+      <c r="H111">
         <v>2</v>
       </c>
-      <c r="I109">
+      <c r="I111">
         <v>12</v>
       </c>
-      <c r="J109" s="40">
+      <c r="J111" s="40">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="K109">
+      <c r="K111">
         <v>13.99</v>
       </c>
-      <c r="L109" s="41">
+      <c r="L111" s="41">
         <f t="shared" si="26"/>
         <v>2.3316666666666666</v>
       </c>
-      <c r="M109" s="41">
+      <c r="M111" s="41">
         <f t="shared" si="27"/>
         <v>13.99</v>
       </c>
-      <c r="O109" t="s">
+      <c r="O111" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
         <v>328</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C112" t="s">
         <v>328</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D112" t="s">
         <v>264</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E112" t="s">
         <v>336</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F112" t="s">
         <v>149</v>
       </c>
-      <c r="H110">
+      <c r="H112">
         <v>3</v>
       </c>
-      <c r="I110">
+      <c r="I112">
         <v>500</v>
       </c>
-      <c r="J110" s="40">
+      <c r="J112" s="40">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="K110">
+      <c r="K112">
         <v>16.36</v>
       </c>
-      <c r="L110" s="41">
+      <c r="L112" s="41">
         <f t="shared" si="26"/>
         <v>9.8159999999999997E-2</v>
       </c>
-      <c r="M110" s="41">
+      <c r="M112" s="41">
         <f t="shared" si="27"/>
         <v>16.36</v>
       </c>
-      <c r="O110" t="s">
+      <c r="O112" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
         <v>338</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C113" t="s">
         <v>329</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D113" t="s">
         <v>264</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E113" t="s">
         <v>339</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F113" t="s">
         <v>149</v>
       </c>
-      <c r="H111">
+      <c r="H113">
         <v>2</v>
       </c>
-      <c r="I111">
+      <c r="I113">
         <v>100</v>
       </c>
-      <c r="J111" s="40">
+      <c r="J113" s="40">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="K111">
+      <c r="K113">
         <v>15.51</v>
       </c>
-      <c r="L111" s="41">
+      <c r="L113" s="41">
         <f t="shared" si="26"/>
         <v>0.31019999999999998</v>
       </c>
-      <c r="M111" s="41">
+      <c r="M113" s="41">
         <f t="shared" si="27"/>
         <v>15.51</v>
       </c>
-      <c r="O111" t="s">
+      <c r="O113" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
         <v>269</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C114" t="s">
         <v>330</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D114" t="s">
         <v>264</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F114" t="s">
         <v>149</v>
       </c>
-      <c r="H112">
+      <c r="H114">
         <v>6</v>
       </c>
-      <c r="I112">
+      <c r="I114">
         <v>100</v>
       </c>
-      <c r="J112" s="40">
+      <c r="J114" s="40">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="K112">
+      <c r="K114">
         <v>19.489999999999998</v>
       </c>
-      <c r="L112" s="41">
+      <c r="L114" s="41">
         <f t="shared" si="26"/>
         <v>1.1694</v>
       </c>
-      <c r="M112" s="41">
+      <c r="M114" s="41">
         <f t="shared" si="27"/>
         <v>19.489999999999998</v>
       </c>
-      <c r="O112" t="s">
+      <c r="O114" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B113" t="s">
+    <row r="115" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
         <v>345</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C115" t="s">
         <v>331</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D115" t="s">
         <v>264</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E115" t="s">
         <v>344</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F115" t="s">
         <v>149</v>
       </c>
-      <c r="H113">
-        <v>1</v>
-      </c>
-      <c r="I113">
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
         <v>10</v>
       </c>
-      <c r="J113" s="40">
+      <c r="J115" s="40">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="K113">
+      <c r="K115">
         <v>12.31</v>
       </c>
-      <c r="L113" s="41">
+      <c r="L115" s="41">
         <f t="shared" si="26"/>
         <v>1.2310000000000001</v>
       </c>
-      <c r="M113" s="41">
+      <c r="M115" s="41">
         <f t="shared" si="27"/>
         <v>12.31</v>
       </c>
-      <c r="O113" t="s">
+      <c r="O115" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J114" s="40">
+    <row r="116" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J116" s="40">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L114" s="41">
+      <c r="L116" s="41">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M114" s="41">
+      <c r="M116" s="41">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J115" s="40">
+    <row r="117" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="J117" s="40">
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L115" s="41">
+      <c r="L117" s="41">
         <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="M115" s="41">
+      <c r="M117" s="41">
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="17:33" x14ac:dyDescent="0.25">
-      <c r="Q144" s="36"/>
-      <c r="R144" s="36"/>
-      <c r="S144" s="36"/>
-      <c r="T144" s="36"/>
-      <c r="U144" s="36"/>
-      <c r="V144" s="36"/>
-      <c r="W144" s="36"/>
-      <c r="X144" s="36"/>
-      <c r="Y144" s="36"/>
-      <c r="Z144" s="36"/>
-      <c r="AA144" s="36"/>
-      <c r="AB144" s="36"/>
-      <c r="AC144" s="36"/>
-      <c r="AD144" s="36"/>
-      <c r="AE144" s="36"/>
-      <c r="AF144" s="36"/>
-      <c r="AG144" s="36"/>
-    </row>
-    <row r="145" spans="16:16" x14ac:dyDescent="0.25">
-      <c r="P145" s="36"/>
+    <row r="146" spans="16:33" x14ac:dyDescent="0.3">
+      <c r="Q146" s="36"/>
+      <c r="R146" s="36"/>
+      <c r="S146" s="36"/>
+      <c r="T146" s="36"/>
+      <c r="U146" s="36"/>
+      <c r="V146" s="36"/>
+      <c r="W146" s="36"/>
+      <c r="X146" s="36"/>
+      <c r="Y146" s="36"/>
+      <c r="Z146" s="36"/>
+      <c r="AA146" s="36"/>
+      <c r="AB146" s="36"/>
+      <c r="AC146" s="36"/>
+      <c r="AD146" s="36"/>
+      <c r="AE146" s="36"/>
+      <c r="AF146" s="36"/>
+      <c r="AG146" s="36"/>
+    </row>
+    <row r="147" spans="16:33" x14ac:dyDescent="0.3">
+      <c r="P147" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6192,14 +6268,14 @@
     <mergeCell ref="A40:C40"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O74" r:id="rId1" xr:uid="{02ED6716-7816-4B3E-9192-4DE2DB3E7904}"/>
-    <hyperlink ref="O84" r:id="rId2" xr:uid="{C5139CD4-D29C-4F40-ACA0-995CCE988BEE}"/>
+    <hyperlink ref="O76" r:id="rId1" xr:uid="{02ED6716-7816-4B3E-9192-4DE2DB3E7904}"/>
+    <hyperlink ref="O86" r:id="rId2" xr:uid="{C5139CD4-D29C-4F40-ACA0-995CCE988BEE}"/>
     <hyperlink ref="O12" r:id="rId3" xr:uid="{71563680-2C44-46CE-8289-648766517570}"/>
     <hyperlink ref="O31" r:id="rId4" xr:uid="{610CCE72-9DC7-41A4-88EE-87699EEA8DFC}"/>
     <hyperlink ref="O28" r:id="rId5" xr:uid="{92CB4CE6-0C06-4100-B560-42F52BF2C637}"/>
-    <hyperlink ref="O85" r:id="rId6" xr:uid="{255C0494-26CB-426C-AA38-5D391BD7768A}"/>
+    <hyperlink ref="O87" r:id="rId6" xr:uid="{255C0494-26CB-426C-AA38-5D391BD7768A}"/>
     <hyperlink ref="O32" r:id="rId7" xr:uid="{EF086B6A-81CA-486D-AAFF-04B6DFE7F47D}"/>
-    <hyperlink ref="O79" r:id="rId8" xr:uid="{9479A087-8561-4FC8-9104-391F1A93A46C}"/>
+    <hyperlink ref="O81" r:id="rId8" xr:uid="{9479A087-8561-4FC8-9104-391F1A93A46C}"/>
     <hyperlink ref="O34" r:id="rId9" xr:uid="{FCF07C8B-3453-4B90-A45C-5C23870E3AA3}"/>
     <hyperlink ref="O11" r:id="rId10" xr:uid="{AD1729D6-FBF8-42FF-820E-275F653BB3D6}"/>
     <hyperlink ref="O38" r:id="rId11" xr:uid="{C1DB9D99-DB62-4744-A864-543646FAE8AA}"/>
@@ -6222,12 +6298,12 @@
     <hyperlink ref="O6" r:id="rId28" xr:uid="{F9E4BECB-9011-4137-823B-2ADAF0EA1EA6}"/>
     <hyperlink ref="O7" r:id="rId29" xr:uid="{50FB6E1D-77D1-4B82-AE6A-492732D8D216}"/>
     <hyperlink ref="O9" r:id="rId30" xr:uid="{1353EC35-CD14-405B-ADC0-88CEEAF33AB6}"/>
-    <hyperlink ref="O76" r:id="rId31" xr:uid="{EEFAB4B2-4940-4C60-8F53-D695D2AD9D04}"/>
-    <hyperlink ref="O78" r:id="rId32" xr:uid="{3C991A0B-A360-43EB-B2D4-4D48F29056CE}"/>
-    <hyperlink ref="O77" r:id="rId33" xr:uid="{7676F691-353A-4745-A640-8245F75CC9CC}"/>
+    <hyperlink ref="O78" r:id="rId31" xr:uid="{EEFAB4B2-4940-4C60-8F53-D695D2AD9D04}"/>
+    <hyperlink ref="O80" r:id="rId32" xr:uid="{3C991A0B-A360-43EB-B2D4-4D48F29056CE}"/>
+    <hyperlink ref="O79" r:id="rId33" xr:uid="{7676F691-353A-4745-A640-8245F75CC9CC}"/>
     <hyperlink ref="O20" r:id="rId34" xr:uid="{DFA44B43-C7A0-43CA-989D-D3BFE142F1D4}"/>
     <hyperlink ref="O15" r:id="rId35" xr:uid="{EAFCD7F5-88CD-4223-99C2-008E32FA2D0C}"/>
-    <hyperlink ref="O82" r:id="rId36" xr:uid="{923561A7-2757-49F4-9B5E-10369AFD95F4}"/>
+    <hyperlink ref="O84" r:id="rId36" xr:uid="{923561A7-2757-49F4-9B5E-10369AFD95F4}"/>
     <hyperlink ref="O22" r:id="rId37" xr:uid="{4914D6D6-5978-4D9F-A2F8-0591E99210F5}"/>
     <hyperlink ref="O21" r:id="rId38" xr:uid="{42ABB6F0-0AC8-4536-B11D-3099C7EEF74D}"/>
     <hyperlink ref="O23" r:id="rId39" xr:uid="{60F5A35C-7655-47B5-A74B-F93AF3445E69}"/>
@@ -6236,7 +6312,7 @@
     <hyperlink ref="O36" r:id="rId42" xr:uid="{650F4D0A-17AB-4D08-A591-5D6AD702A5D1}"/>
     <hyperlink ref="O39" r:id="rId43" xr:uid="{966DB76C-4FE9-409E-AB1D-21E89B358050}"/>
     <hyperlink ref="O42" r:id="rId44" display="https://www.amazon.ca/WOVTE-Reusable-Toddlers-Silicone-Cleaning/dp/B07KVTYG5X" xr:uid="{19A5D70E-254D-47BA-81C4-7B2B773555CF}"/>
-    <hyperlink ref="O100" r:id="rId45" xr:uid="{B3A0D2F8-3D95-44B9-BBD1-089933FB86C4}"/>
+    <hyperlink ref="O102" r:id="rId45" xr:uid="{B3A0D2F8-3D95-44B9-BBD1-089933FB86C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId46"/>
@@ -6244,12 +6320,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6474,35 +6552,50 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57C9FC67-5541-4CD4-9C4D-BDD1FC789ADC}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4958292-C6C4-482B-887A-6CF9FB19AB74}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
     <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57C9FC67-5541-4CD4-9C4D-BDD1FC789ADC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
+    <ds:schemaRef ds:uri="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Documentation/Working_Documents/LipSync_BOM.xlsx
+++ b/Documentation/Working_Documents/LipSync_BOM.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 21-05 LipSync 4/LipSync4/Documentation/Working_Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://neilsquiresoc.sharepoint.com/sites/MMC-RD/Shared Documents/RD 21-05 LipSync 4/LipSync_4.1/LipSync/Documentation/Working_Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1782" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{428D312F-2597-4CCD-9180-BCD762F1C469}"/>
+  <xr:revisionPtr revIDLastSave="1830" documentId="11_DC0E2523FAFE28515E8D5C5A1D4A6B02C3B15AFA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BDDE696-0053-470F-BFA4-5CC15E6CF907}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BOM - v4.0" sheetId="5" r:id="rId1"/>
+    <sheet name="BOM - v4.1" sheetId="6" r:id="rId1"/>
+    <sheet name="BOM - v4.0" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="378">
   <si>
     <t>Total filament (g)</t>
   </si>
@@ -935,12 +936,6 @@
     <t>WOVTE</t>
   </si>
   <si>
-    <t>Zip Tie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zip tie </t>
-  </si>
-  <si>
     <t>https://www.digikey.ca/en/products/detail/te-connectivity/2-604771-9/2259327</t>
   </si>
   <si>
@@ -1125,6 +1120,57 @@
   </si>
   <si>
     <t>4.0</t>
+  </si>
+  <si>
+    <t>Cable Tie</t>
+  </si>
+  <si>
+    <t>Mouthpiece Tip Adapter</t>
+  </si>
+  <si>
+    <t>Mouthpiece Tip</t>
+  </si>
+  <si>
+    <t>Female Luer Lock 1/4 Inch Luer Lock Connector Kit to Syringe Coupler Adapter</t>
+  </si>
+  <si>
+    <t>PEUTIER</t>
+  </si>
+  <si>
+    <t>B0CJY11V4B</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/WOVTE-Reusable-Toddlers-Silicone-Cleaning/dp/B07KVTYG5X</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/dp/B0CJY11V4B</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/gp/product/B0BKRR426C</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/dp/B01GGKYN0A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/sparkfun-electronics/DEV-14495/7942483</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ca/en/products/detail/omron-electronics-inc-emc-div/B3F-5050/368377</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/gp/product/B01C3GCZTM</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/gp/product/B0B8CJVX3S</t>
+  </si>
+  <si>
+    <t>2025-Mar-21</t>
+  </si>
+  <si>
+    <t>https://www.amazon.ca/Female-Connector-6-4mm-Tubing-Adapter/dp/B0D7TW5R71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MycologyLids </t>
   </si>
 </sst>
 </file>
@@ -1532,6 +1578,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1541,7 +1588,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="60% - Accent4" xfId="3" builtinId="44"/>
@@ -1566,6 +1612,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1830,14 +1880,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDD599-C177-4BBC-A644-7A0346B01187}">
-  <dimension ref="A1:AG145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF585FBF-2710-4BDC-BC8F-F27A03F32A66}">
+  <dimension ref="A1:AG142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="4" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="C114" sqref="C114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,7 +1914,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="35.25" x14ac:dyDescent="0.5">
       <c r="B1" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>0</v>
@@ -1883,30 +1933,30 @@
       <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="58" t="s">
-        <v>362</v>
+      <c r="C2" s="55">
+        <v>4.0999999999999996</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="G2" s="11"/>
       <c r="I2" s="6">
-        <f>SUM(I54:I70)</f>
+        <f>SUM(I52:I68)</f>
         <v>158</v>
       </c>
       <c r="L2" s="22">
-        <f>SUM(L6:L45,L48:L50,L54:L70)</f>
-        <v>176.62886666666662</v>
+        <f>SUM(L6:L43,L46:L48,L52:L68)</f>
+        <v>176.10683333333333</v>
       </c>
       <c r="M2" s="5">
-        <f>SUM(M6:M70)</f>
-        <v>325.8399999999998</v>
+        <f>SUM(M6:M68)</f>
+        <v>295.69999999999982</v>
       </c>
       <c r="N2" s="23">
-        <f>SUM(N54:N70)</f>
+        <f>SUM(N52:N68)</f>
         <v>0.62708333333333344</v>
       </c>
     </row>
@@ -1963,11 +2013,11 @@
       <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>306</v>
-      </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
       <c r="F5" s="45"/>
@@ -1991,7 +2041,7 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
@@ -2019,7 +2069,7 @@
         <v>8.5299999999999994</v>
       </c>
       <c r="L6" s="41">
-        <f t="shared" ref="L6:L45" si="0">IF(H6&gt;0,K6/I6*H6,0)</f>
+        <f t="shared" ref="L6:L43" si="0">IF(H6&gt;0,K6/I6*H6,0)</f>
         <v>8.5299999999999994</v>
       </c>
       <c r="M6" s="41">
@@ -2038,7 +2088,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -2059,7 +2109,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="40">
-        <f t="shared" ref="J7:J33" si="1">IF(H7&gt;0,CEILING(H7/I7,1),0)</f>
+        <f t="shared" ref="J7:J39" si="1">IF(H7&gt;0,CEILING(H7/I7,1),0)</f>
         <v>1</v>
       </c>
       <c r="K7" s="12">
@@ -2070,7 +2120,7 @@
         <v>17.91</v>
       </c>
       <c r="M7" s="41">
-        <f t="shared" ref="M7:M33" si="2">J7*K7</f>
+        <f t="shared" ref="M7:M39" si="2">J7*K7</f>
         <v>17.91</v>
       </c>
       <c r="O7" s="33" t="s">
@@ -2085,7 +2135,7 @@
         <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -2220,7 +2270,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B11" t="s">
         <v>45</v>
@@ -2541,7 +2591,7 @@
         <v>11.99</v>
       </c>
       <c r="O17" s="8" t="s">
-        <v>151</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2583,15 +2633,15 @@
         <v>12.49</v>
       </c>
       <c r="O18" s="8" t="s">
-        <v>153</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:15" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
-        <v>303</v>
-      </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="56"/>
+      <c r="A19" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
       <c r="D19" s="46"/>
       <c r="G19" s="46"/>
       <c r="K19" s="48"/>
@@ -2607,7 +2657,7 @@
         <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D20" t="s">
         <v>57</v>
@@ -2831,7 +2881,7 @@
         <v>2.04</v>
       </c>
       <c r="O24" s="33" t="s">
-        <v>260</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -2936,7 +2986,7 @@
         <v>111</v>
       </c>
       <c r="C27" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D27" t="s">
         <v>57</v>
@@ -3254,7 +3304,7 @@
         <v>2.34</v>
       </c>
       <c r="O33" s="33" t="s">
-        <v>146</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
@@ -3286,18 +3336,18 @@
         <v>1</v>
       </c>
       <c r="J34" s="40">
-        <f t="shared" ref="J34:J39" si="3">IF(H34&gt;0,CEILING(H34/I34,1),0)</f>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K34" s="9">
         <v>0.19</v>
       </c>
       <c r="L34" s="41">
-        <f t="shared" ref="L34:L39" si="4">IF(H34&gt;0,K34/I34*H34,0)</f>
+        <f t="shared" si="0"/>
         <v>1.33</v>
       </c>
       <c r="M34" s="41">
-        <f t="shared" ref="M34:M39" si="5">J34*K34</f>
+        <f t="shared" si="2"/>
         <v>1.33</v>
       </c>
       <c r="O34" s="8" t="s">
@@ -3333,18 +3383,18 @@
         <v>1</v>
       </c>
       <c r="J35" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="K35" s="9">
         <v>0.2</v>
       </c>
       <c r="L35" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="M35" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>1.4000000000000001</v>
       </c>
       <c r="O35" s="8" t="s">
@@ -3380,18 +3430,18 @@
         <v>1</v>
       </c>
       <c r="J36" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="K36" s="9">
         <v>1.66</v>
       </c>
       <c r="L36" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>3.32</v>
       </c>
       <c r="M36" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>3.32</v>
       </c>
       <c r="O36" s="8" t="s">
@@ -3427,18 +3477,18 @@
         <v>1</v>
       </c>
       <c r="J37" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="K37" s="12">
         <v>0.63</v>
       </c>
       <c r="L37" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>5.04</v>
       </c>
       <c r="M37" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>5.04</v>
       </c>
       <c r="O37" s="8" t="s">
@@ -3474,19 +3524,19 @@
         <v>50</v>
       </c>
       <c r="J38" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K38" s="9">
-        <v>18.829999999999998</v>
+        <v>15.54</v>
       </c>
       <c r="L38" s="41">
-        <f t="shared" si="4"/>
-        <v>0.75319999999999998</v>
+        <f t="shared" si="0"/>
+        <v>0.62159999999999993</v>
       </c>
       <c r="M38" s="41">
-        <f t="shared" si="5"/>
-        <v>18.829999999999998</v>
+        <f t="shared" si="2"/>
+        <v>15.54</v>
       </c>
       <c r="O38" s="8" t="s">
         <v>265</v>
@@ -3518,125 +3568,125 @@
         <v>1</v>
       </c>
       <c r="J39" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="K39" s="9">
         <v>12.95</v>
       </c>
       <c r="L39" s="41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>12.95</v>
       </c>
       <c r="M39" s="41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>12.95</v>
       </c>
       <c r="O39" s="8" t="s">
-        <v>268</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
-        <v>304</v>
-      </c>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
+      <c r="A40" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C41" s="37" t="s">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="D41" s="37" t="s">
         <v>264</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="44" t="s">
-        <v>302</v>
+        <v>149</v>
       </c>
       <c r="H41">
+        <v>2</v>
+      </c>
+      <c r="I41">
         <v>6</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
       </c>
       <c r="J41" s="40">
         <f>IF(H41&gt;0,CEILING(H41/I41,1),0)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K41" s="9">
-        <v>0.27</v>
+        <v>12.49</v>
       </c>
       <c r="L41" s="41">
         <f>IF(H41&gt;0,K41/I41*H41,0)</f>
-        <v>1.62</v>
+        <v>4.1633333333333331</v>
       </c>
       <c r="M41" s="41">
         <f>J41*K41</f>
-        <v>1.62</v>
+        <v>12.49</v>
       </c>
       <c r="O41" s="8" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="C42" s="37" t="s">
-        <v>296</v>
+        <v>362</v>
       </c>
       <c r="D42" s="37" t="s">
         <v>264</v>
       </c>
       <c r="E42" t="s">
-        <v>298</v>
+        <v>365</v>
       </c>
       <c r="F42" t="s">
         <v>149</v>
       </c>
+      <c r="G42" s="37" t="s">
+        <v>366</v>
+      </c>
       <c r="H42">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I42">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J42" s="40">
         <f>IF(H42&gt;0,CEILING(H42/I42,1),0)</f>
         <v>1</v>
       </c>
       <c r="K42" s="9">
-        <v>12.49</v>
+        <v>10.99</v>
       </c>
       <c r="L42" s="41">
         <f>IF(H42&gt;0,K42/I42*H42,0)</f>
-        <v>4.1633333333333331</v>
+        <v>1.8316666666666668</v>
       </c>
       <c r="M42" s="41">
         <f>J42*K42</f>
-        <v>12.49</v>
+        <v>10.99</v>
       </c>
       <c r="O42" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>109</v>
       </c>
       <c r="B43" t="s">
-        <v>293</v>
+        <v>185</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="D43" s="37" t="s">
         <v>264</v>
@@ -3645,10 +3695,10 @@
         <v>149</v>
       </c>
       <c r="G43" s="37" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I43">
         <v>100</v>
@@ -3658,311 +3708,294 @@
         <v>1</v>
       </c>
       <c r="K43" s="9">
-        <v>23.99</v>
+        <v>39.99</v>
       </c>
       <c r="L43" s="41">
         <f t="shared" si="0"/>
-        <v>0.47979999999999995</v>
+        <v>2.3994</v>
       </c>
       <c r="M43" s="41">
         <f>J43*K43</f>
-        <v>23.99</v>
+        <v>39.99</v>
       </c>
       <c r="O43" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>269</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>270</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="F44" t="s">
-        <v>149</v>
-      </c>
-      <c r="G44" s="37"/>
-      <c r="H44">
-        <v>1</v>
-      </c>
-      <c r="I44">
-        <v>100</v>
-      </c>
-      <c r="J44" s="40">
-        <f>IF(H44&gt;0,CEILING(H44/I44,1),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K44" s="9">
-        <v>12.23</v>
-      </c>
-      <c r="L44" s="41">
-        <f>IF(H44&gt;0,K44/I44*H44,0)</f>
-        <v>0.12230000000000001</v>
-      </c>
-      <c r="M44" s="41">
-        <f>J44*K44</f>
-        <v>12.23</v>
-      </c>
-      <c r="O44" s="8" t="s">
-        <v>271</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="14" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="D45" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="F45" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="H45">
-        <v>6</v>
-      </c>
-      <c r="I45">
-        <v>100</v>
-      </c>
-      <c r="J45" s="40">
-        <f>IF(H45&gt;0,CEILING(H45/I45,1),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K45" s="9">
-        <v>39.99</v>
-      </c>
-      <c r="L45" s="41">
-        <f t="shared" si="0"/>
-        <v>2.3994</v>
-      </c>
-      <c r="M45" s="41">
-        <f>J45*K45</f>
-        <v>39.99</v>
-      </c>
-      <c r="O45" s="8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="7" t="s">
+      <c r="B45" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7" t="s">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H47" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="7" t="s">
+      <c r="I45" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="7" t="s">
+      <c r="J45" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="K45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L47" s="7" t="s">
+      <c r="L45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="M47" s="7" t="s">
+      <c r="M45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7" t="s">
+      <c r="N45" s="7"/>
+      <c r="O45" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="R47" s="8"/>
+      <c r="R45" s="8"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>191</v>
+      </c>
+      <c r="B46" t="s">
+        <v>289</v>
+      </c>
+      <c r="C46" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" t="s">
+        <v>193</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <v>5</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46:J48" si="3">IF(H46&gt;0,CEILING(H46/I46,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <f>IF(H46&gt;0,K46/I46*H46,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46:M48" si="4">J46*K46</f>
+        <v>5</v>
+      </c>
+      <c r="O46" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" t="s">
+        <v>290</v>
+      </c>
+      <c r="D47" t="s">
+        <v>195</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <v>5</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K47">
+        <v>25</v>
+      </c>
+      <c r="L47">
+        <f>IF(H47&gt;0,K47/I47*H47,0)</f>
+        <v>5</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>191</v>
-      </c>
       <c r="B48" t="s">
-        <v>289</v>
+        <v>194</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
-      </c>
-      <c r="E48" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>5</v>
       </c>
       <c r="J48">
-        <f t="shared" ref="J48:J50" si="6">IF(H48&gt;0,CEILING(H48/I48,1),0)</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="L48">
         <f>IF(H48&gt;0,K48/I48*H48,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48">
-        <f t="shared" ref="M48:M50" si="7">J48*K48</f>
-        <v>5</v>
-      </c>
-      <c r="O48" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>194</v>
-      </c>
-      <c r="C49" t="s">
-        <v>290</v>
-      </c>
-      <c r="D49" t="s">
-        <v>195</v>
-      </c>
-      <c r="H49">
-        <v>1</v>
-      </c>
-      <c r="I49">
-        <v>5</v>
-      </c>
-      <c r="J49">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K49">
-        <v>25</v>
-      </c>
-      <c r="L49">
-        <f>IF(H49&gt;0,K49/I49*H49,0)</f>
-        <v>5</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="7"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>194</v>
-      </c>
-      <c r="C50" t="s">
-        <v>291</v>
-      </c>
-      <c r="D50" t="s">
-        <v>195</v>
-      </c>
-      <c r="H50">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>5</v>
-      </c>
-      <c r="J50">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>25</v>
-      </c>
-      <c r="L50">
-        <f>IF(H50&gt;0,K50/I50*H50,0)</f>
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="49" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="20"/>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+    </row>
+    <row r="50" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C50" s="26">
+        <v>30</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="22"/>
     </row>
     <row r="51" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="20"/>
-      <c r="L51" s="16"/>
-      <c r="M51" s="16"/>
+      <c r="B51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M51" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N51" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O51" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="52" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="26">
-        <v>30</v>
-      </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="17"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="22"/>
+      <c r="B52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C52" t="s">
+        <v>229</v>
+      </c>
+      <c r="D52" t="s">
+        <v>57</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52">
+        <v>19</v>
+      </c>
+      <c r="K52" s="32">
+        <f>I52/1000*$C$50</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L52" s="32">
+        <f>K52</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M52" s="32">
+        <f>K52</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N52" s="27">
+        <v>2.4999999999999998E-2</v>
+      </c>
     </row>
     <row r="53" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="15" t="s">
-        <v>198</v>
-      </c>
-      <c r="L53" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="M53" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>19</v>
-      </c>
+      <c r="B53" t="s">
+        <v>285</v>
+      </c>
+      <c r="C53" t="s">
+        <v>230</v>
+      </c>
+      <c r="D53" t="s">
+        <v>57</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+      <c r="I53">
+        <v>26</v>
+      </c>
+      <c r="K53" s="32">
+        <f t="shared" ref="K53:K68" si="5">I53/1000*$C$50</f>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="L53" s="32">
+        <f t="shared" ref="L53:L68" si="6">K53</f>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="M53" s="32">
+        <f t="shared" ref="M53:M68" si="7">K53</f>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="N53" s="27">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="Q53" s="43"/>
+      <c r="R53" s="43"/>
     </row>
     <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C54" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D54" t="s">
         <v>57</v>
@@ -3971,30 +4004,31 @@
         <v>1</v>
       </c>
       <c r="I54">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="K54" s="32">
-        <f>I54/1000*$C$52</f>
-        <v>0.56999999999999995</v>
+        <f t="shared" si="5"/>
+        <v>0.06</v>
       </c>
       <c r="L54" s="32">
-        <f>K54</f>
-        <v>0.56999999999999995</v>
+        <f t="shared" si="6"/>
+        <v>0.06</v>
       </c>
       <c r="M54" s="32">
-        <f>K54</f>
-        <v>0.56999999999999995</v>
+        <f t="shared" si="7"/>
+        <v>0.06</v>
       </c>
       <c r="N54" s="27">
-        <v>2.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="P54" s="43"/>
+    </row>
+    <row r="55" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C55" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D55" t="s">
         <v>57</v>
@@ -4003,32 +4037,30 @@
         <v>1</v>
       </c>
       <c r="I55">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="K55" s="32">
-        <f t="shared" ref="K55:K70" si="8">I55/1000*$C$52</f>
-        <v>0.77999999999999992</v>
+        <f t="shared" si="5"/>
+        <v>0.06</v>
       </c>
       <c r="L55" s="32">
-        <f t="shared" ref="L55:L70" si="9">K55</f>
-        <v>0.77999999999999992</v>
+        <f t="shared" si="6"/>
+        <v>0.06</v>
       </c>
       <c r="M55" s="32">
-        <f t="shared" ref="M55:M70" si="10">K55</f>
-        <v>0.77999999999999992</v>
+        <f t="shared" si="7"/>
+        <v>0.06</v>
       </c>
       <c r="N55" s="27">
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="Q55" s="43"/>
-      <c r="R55" s="43"/>
-    </row>
-    <row r="56" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>8.819444444444445E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C56" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D56" t="s">
         <v>57</v>
@@ -4040,92 +4072,91 @@
         <v>2</v>
       </c>
       <c r="K56" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.06</v>
       </c>
       <c r="L56" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.06</v>
       </c>
       <c r="M56" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.06</v>
       </c>
       <c r="N56" s="27">
-        <v>6.5277777777777782E-2</v>
-      </c>
-      <c r="P56" s="43"/>
+        <v>9.0277777777777787E-3</v>
+      </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C57" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D57" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="H57">
         <v>1</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K57" s="32">
-        <f t="shared" si="8"/>
-        <v>0.06</v>
+        <f t="shared" si="5"/>
+        <v>0.09</v>
       </c>
       <c r="L57" s="32">
-        <f t="shared" si="9"/>
-        <v>0.06</v>
+        <f t="shared" si="6"/>
+        <v>0.09</v>
       </c>
       <c r="M57" s="32">
-        <f t="shared" si="10"/>
-        <v>0.06</v>
+        <f t="shared" si="7"/>
+        <v>0.09</v>
       </c>
       <c r="N57" s="27">
-        <v>8.819444444444445E-2</v>
+        <v>7.6388888888888886E-3</v>
       </c>
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D58" t="s">
-        <v>57</v>
+        <v>22</v>
       </c>
       <c r="H58">
         <v>1</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K58" s="32">
-        <f t="shared" si="8"/>
-        <v>0.06</v>
+        <f t="shared" si="5"/>
+        <v>0.09</v>
       </c>
       <c r="L58" s="32">
-        <f t="shared" si="9"/>
-        <v>0.06</v>
+        <f t="shared" si="6"/>
+        <v>0.09</v>
       </c>
       <c r="M58" s="32">
-        <f t="shared" si="10"/>
-        <v>0.06</v>
+        <f t="shared" si="7"/>
+        <v>0.09</v>
       </c>
       <c r="N58" s="27">
-        <v>9.0277777777777787E-3</v>
+        <v>7.6388888888888886E-3</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C59" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D59" t="s">
         <v>22</v>
@@ -4137,27 +4168,27 @@
         <v>3</v>
       </c>
       <c r="K59" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.09</v>
       </c>
       <c r="L59" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.09</v>
       </c>
       <c r="M59" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.09</v>
       </c>
       <c r="N59" s="27">
-        <v>7.6388888888888886E-3</v>
+        <v>1.3194444444444444E-2</v>
       </c>
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D60" t="s">
         <v>22</v>
@@ -4169,27 +4200,27 @@
         <v>3</v>
       </c>
       <c r="K60" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="5"/>
         <v>0.09</v>
       </c>
       <c r="L60" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="6"/>
         <v>0.09</v>
       </c>
       <c r="M60" s="32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="7"/>
         <v>0.09</v>
       </c>
       <c r="N60" s="27">
-        <v>7.6388888888888886E-3</v>
+        <v>1.3194444444444444E-2</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D61" t="s">
         <v>22</v>
@@ -4198,62 +4229,62 @@
         <v>1</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K61" s="32">
-        <f t="shared" si="8"/>
-        <v>0.09</v>
+        <f t="shared" si="5"/>
+        <v>0.12</v>
       </c>
       <c r="L61" s="32">
-        <f t="shared" si="9"/>
-        <v>0.09</v>
+        <f t="shared" si="6"/>
+        <v>0.12</v>
       </c>
       <c r="M61" s="32">
-        <f t="shared" si="10"/>
-        <v>0.09</v>
+        <f t="shared" si="7"/>
+        <v>0.12</v>
       </c>
       <c r="N61" s="27">
-        <v>1.3194444444444444E-2</v>
+        <v>1.2499999999999999E-2</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="C62" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D62" t="s">
         <v>22</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K62" s="32">
-        <f t="shared" si="8"/>
-        <v>0.09</v>
+        <f t="shared" si="5"/>
+        <v>0.03</v>
       </c>
       <c r="L62" s="32">
-        <f t="shared" si="9"/>
-        <v>0.09</v>
+        <f t="shared" si="6"/>
+        <v>0.03</v>
       </c>
       <c r="M62" s="32">
-        <f t="shared" si="10"/>
-        <v>0.09</v>
+        <f t="shared" si="7"/>
+        <v>0.03</v>
       </c>
       <c r="N62" s="27">
-        <v>1.3194444444444444E-2</v>
+        <v>1.3888888888888889E-3</v>
       </c>
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C63" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D63" t="s">
         <v>22</v>
@@ -4262,62 +4293,62 @@
         <v>1</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K63" s="32">
-        <f t="shared" si="8"/>
-        <v>0.12</v>
+        <f t="shared" si="5"/>
+        <v>0.15</v>
       </c>
       <c r="L63" s="32">
-        <f t="shared" si="9"/>
-        <v>0.12</v>
+        <f t="shared" si="6"/>
+        <v>0.15</v>
       </c>
       <c r="M63" s="32">
-        <f t="shared" si="10"/>
-        <v>0.12</v>
+        <f t="shared" si="7"/>
+        <v>0.15</v>
       </c>
       <c r="N63" s="27">
-        <v>1.2499999999999999E-2</v>
+        <v>2.9861111111111113E-2</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C64" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D64" t="s">
         <v>22</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="K64" s="32">
-        <f t="shared" si="8"/>
-        <v>0.03</v>
+        <f t="shared" si="5"/>
+        <v>0.42</v>
       </c>
       <c r="L64" s="32">
-        <f t="shared" si="9"/>
-        <v>0.03</v>
+        <f t="shared" si="6"/>
+        <v>0.42</v>
       </c>
       <c r="M64" s="32">
-        <f t="shared" si="10"/>
-        <v>0.03</v>
+        <f t="shared" si="7"/>
+        <v>0.42</v>
       </c>
       <c r="N64" s="27">
-        <v>1.3888888888888889E-3</v>
+        <v>4.027777777777778E-2</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C65" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D65" t="s">
         <v>22</v>
@@ -4326,30 +4357,30 @@
         <v>1</v>
       </c>
       <c r="I65">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="K65" s="32">
-        <f t="shared" si="8"/>
-        <v>0.15</v>
+        <f t="shared" si="5"/>
+        <v>0.77999999999999992</v>
       </c>
       <c r="L65" s="32">
-        <f t="shared" si="9"/>
-        <v>0.15</v>
+        <f t="shared" si="6"/>
+        <v>0.77999999999999992</v>
       </c>
       <c r="M65" s="32">
-        <f t="shared" si="10"/>
-        <v>0.15</v>
+        <f t="shared" si="7"/>
+        <v>0.77999999999999992</v>
       </c>
       <c r="N65" s="27">
-        <v>2.9861111111111113E-2</v>
+        <v>8.6805555555555566E-2</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C66" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D66" t="s">
         <v>22</v>
@@ -4358,30 +4389,30 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="K66" s="32">
-        <f t="shared" si="8"/>
-        <v>0.42</v>
+        <f t="shared" si="5"/>
+        <v>0.51</v>
       </c>
       <c r="L66" s="32">
-        <f t="shared" si="9"/>
-        <v>0.42</v>
+        <f t="shared" si="6"/>
+        <v>0.51</v>
       </c>
       <c r="M66" s="32">
-        <f t="shared" si="10"/>
-        <v>0.42</v>
+        <f t="shared" si="7"/>
+        <v>0.51</v>
       </c>
       <c r="N66" s="27">
-        <v>4.027777777777778E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C67" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D67" t="s">
         <v>22</v>
@@ -4390,30 +4421,30 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="K67" s="32">
-        <f t="shared" si="8"/>
-        <v>0.77999999999999992</v>
+        <f t="shared" si="5"/>
+        <v>0.18</v>
       </c>
       <c r="L67" s="32">
-        <f t="shared" si="9"/>
-        <v>0.77999999999999992</v>
+        <f t="shared" si="6"/>
+        <v>0.18</v>
       </c>
       <c r="M67" s="32">
-        <f t="shared" si="10"/>
-        <v>0.77999999999999992</v>
+        <f t="shared" si="7"/>
+        <v>0.18</v>
       </c>
       <c r="N67" s="27">
-        <v>8.6805555555555566E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2.2916666666666669E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C68" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D68" t="s">
         <v>22</v>
@@ -4422,128 +4453,145 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K68" s="32">
-        <f t="shared" si="8"/>
-        <v>0.51</v>
+        <f t="shared" si="5"/>
+        <v>0.65999999999999992</v>
       </c>
       <c r="L68" s="32">
+        <f t="shared" si="6"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="M68" s="32">
+        <f t="shared" si="7"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="N68" s="27">
+        <v>0.10208333333333335</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="29"/>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B71" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C71" t="s">
+        <v>305</v>
+      </c>
+      <c r="E71" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" t="s">
+        <v>201</v>
+      </c>
+      <c r="G71" t="s">
+        <v>202</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <f t="shared" ref="J71:J73" si="8">IF(H71&gt;0,CEILING(H71/I71,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K71" s="25">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="L71" s="41">
+        <f>IF(H71&gt;0,K71/I71*H71,0)</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="M71" s="32">
+        <f t="shared" ref="M71:M77" si="9">J71*K71</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="O71" s="33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" t="s">
+        <v>308</v>
+      </c>
+      <c r="E72" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" t="s">
+        <v>201</v>
+      </c>
+      <c r="G72" t="s">
+        <v>204</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72" s="12">
+        <v>18.13</v>
+      </c>
+      <c r="L72" s="41">
+        <f t="shared" ref="L72:L82" si="10">IF(H72&gt;0,K72/I72*H72,0)</f>
+        <v>18.13</v>
+      </c>
+      <c r="M72" s="32">
         <f t="shared" si="9"/>
-        <v>0.51</v>
-      </c>
-      <c r="M68" s="32">
-        <f t="shared" si="10"/>
-        <v>0.51</v>
-      </c>
-      <c r="N68" s="27">
-        <v>5.2083333333333336E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>281</v>
-      </c>
-      <c r="C69" t="s">
-        <v>239</v>
-      </c>
-      <c r="D69" t="s">
-        <v>22</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>6</v>
-      </c>
-      <c r="K69" s="32">
-        <f t="shared" si="8"/>
-        <v>0.18</v>
-      </c>
-      <c r="L69" s="32">
-        <f t="shared" si="9"/>
-        <v>0.18</v>
-      </c>
-      <c r="M69" s="32">
-        <f t="shared" si="10"/>
-        <v>0.18</v>
-      </c>
-      <c r="N69" s="27">
-        <v>2.2916666666666669E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B70" t="s">
-        <v>283</v>
-      </c>
-      <c r="C70" t="s">
-        <v>242</v>
-      </c>
-      <c r="D70" t="s">
-        <v>22</v>
-      </c>
-      <c r="H70">
-        <v>1</v>
-      </c>
-      <c r="I70">
-        <v>22</v>
-      </c>
-      <c r="K70" s="32">
-        <f t="shared" si="8"/>
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="L70" s="32">
-        <f t="shared" si="9"/>
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="M70" s="32">
-        <f t="shared" si="10"/>
-        <v>0.65999999999999992</v>
-      </c>
-      <c r="N70" s="27">
-        <v>0.10208333333333335</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="28" t="s">
-        <v>200</v>
-      </c>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-    </row>
-    <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="29"/>
+        <v>18.13</v>
+      </c>
+      <c r="O72" s="33" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B73" s="31" t="s">
-        <v>21</v>
+      <c r="B73" t="s">
+        <v>30</v>
       </c>
       <c r="C73" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E73" t="s">
         <v>23</v>
@@ -4551,8 +4599,8 @@
       <c r="F73" t="s">
         <v>201</v>
       </c>
-      <c r="G73" t="s">
-        <v>202</v>
+      <c r="G73" s="24" t="s">
+        <v>206</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -4561,30 +4609,33 @@
         <v>1</v>
       </c>
       <c r="J73">
-        <f t="shared" ref="J73:J75" si="11">IF(H73&gt;0,CEILING(H73/I73,1),0)</f>
-        <v>1</v>
-      </c>
-      <c r="K73" s="25">
-        <v>8.6300000000000008</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K73" s="12">
+        <v>10.08</v>
       </c>
       <c r="L73" s="41">
-        <f>IF(H73&gt;0,K73/I73*H73,0)</f>
-        <v>8.6300000000000008</v>
+        <f t="shared" si="10"/>
+        <v>10.08</v>
       </c>
       <c r="M73" s="32">
-        <f t="shared" ref="M73:M79" si="12">J73*K73</f>
-        <v>8.6300000000000008</v>
+        <f t="shared" si="9"/>
+        <v>10.08</v>
       </c>
       <c r="O73" s="33" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>27</v>
+      <c r="A74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" s="30" t="s">
+        <v>56</v>
       </c>
       <c r="C74" t="s">
-        <v>310</v>
+        <v>208</v>
       </c>
       <c r="E74" t="s">
         <v>23</v>
@@ -4593,7 +4644,7 @@
         <v>201</v>
       </c>
       <c r="G74" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="H74">
         <v>1</v>
@@ -4604,27 +4655,30 @@
       <c r="J74">
         <v>1</v>
       </c>
-      <c r="K74" s="12">
-        <v>18.13</v>
+      <c r="K74" s="25">
+        <v>1.38</v>
       </c>
       <c r="L74" s="41">
-        <f t="shared" ref="L74:L84" si="13">IF(H74&gt;0,K74/I74*H74,0)</f>
-        <v>18.13</v>
+        <f t="shared" si="10"/>
+        <v>1.38</v>
       </c>
       <c r="M74" s="32">
-        <f t="shared" si="12"/>
-        <v>18.13</v>
-      </c>
-      <c r="O74" s="33" t="s">
-        <v>205</v>
+        <f t="shared" si="9"/>
+        <v>1.38</v>
+      </c>
+      <c r="O74" s="8" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>49</v>
+      </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C75" t="s">
-        <v>311</v>
+        <v>51</v>
       </c>
       <c r="E75" t="s">
         <v>23</v>
@@ -4632,8 +4686,8 @@
       <c r="F75" t="s">
         <v>201</v>
       </c>
-      <c r="G75" s="24" t="s">
-        <v>206</v>
+      <c r="G75" s="38" t="s">
+        <v>250</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -4642,42 +4696,38 @@
         <v>1</v>
       </c>
       <c r="J75">
-        <f t="shared" si="11"/>
-        <v>1</v>
-      </c>
-      <c r="K75" s="12">
-        <v>10.08</v>
+        <v>1</v>
+      </c>
+      <c r="K75" s="25">
+        <v>1.38</v>
       </c>
       <c r="L75" s="41">
-        <f t="shared" si="13"/>
-        <v>10.08</v>
+        <f>IF(H75&gt;0,K75/I75*H75,0)</f>
+        <v>1.38</v>
       </c>
       <c r="M75" s="32">
-        <f t="shared" si="12"/>
-        <v>10.08</v>
-      </c>
-      <c r="O75" s="33" t="s">
-        <v>207</v>
+        <f>J75*K75</f>
+        <v>1.38</v>
+      </c>
+      <c r="O75" s="8" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>55</v>
-      </c>
-      <c r="B76" s="30" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="B76" t="s">
+        <v>50</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>51</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F76" t="s">
-        <v>201</v>
-      </c>
-      <c r="G76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H76">
         <v>1</v>
@@ -4689,38 +4739,35 @@
         <v>1</v>
       </c>
       <c r="K76" s="25">
-        <v>1.38</v>
+        <v>1.95</v>
       </c>
       <c r="L76" s="41">
-        <f t="shared" si="13"/>
-        <v>1.38</v>
+        <f t="shared" si="10"/>
+        <v>1.95</v>
       </c>
       <c r="M76" s="32">
-        <f t="shared" si="12"/>
-        <v>1.38</v>
+        <f t="shared" si="9"/>
+        <v>1.95</v>
       </c>
       <c r="O76" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>49</v>
-      </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>211</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="E77" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="F77" t="s">
-        <v>201</v>
-      </c>
-      <c r="G77" s="38" t="s">
-        <v>250</v>
+        <v>24</v>
+      </c>
+      <c r="G77" s="24" t="s">
+        <v>213</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -4731,36 +4778,36 @@
       <c r="J77">
         <v>1</v>
       </c>
-      <c r="K77" s="25">
-        <v>1.38</v>
+      <c r="K77" s="12">
+        <v>0.72</v>
       </c>
       <c r="L77" s="41">
-        <f>IF(H77&gt;0,K77/I77*H77,0)</f>
-        <v>1.38</v>
+        <f t="shared" si="10"/>
+        <v>0.72</v>
       </c>
       <c r="M77" s="32">
-        <f>J77*K77</f>
-        <v>1.38</v>
-      </c>
-      <c r="O77" s="8" t="s">
-        <v>251</v>
+        <f t="shared" si="9"/>
+        <v>0.72</v>
+      </c>
+      <c r="O77" s="33" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>49</v>
-      </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E78" t="s">
         <v>52</v>
       </c>
       <c r="F78" t="s">
-        <v>210</v>
+        <v>201</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>215</v>
       </c>
       <c r="H78">
         <v>1</v>
@@ -4772,75 +4819,75 @@
         <v>1</v>
       </c>
       <c r="K78" s="25">
-        <v>1.95</v>
+        <v>2.83</v>
       </c>
       <c r="L78" s="41">
-        <f t="shared" si="13"/>
-        <v>1.95</v>
+        <f t="shared" si="10"/>
+        <v>2.83</v>
       </c>
       <c r="M78" s="32">
-        <f t="shared" si="12"/>
-        <v>1.95</v>
-      </c>
-      <c r="O78" s="8" t="s">
-        <v>249</v>
+        <f>J78*K78</f>
+        <v>2.83</v>
+      </c>
+      <c r="O78" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>138</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="F79" t="s">
-        <v>24</v>
+        <v>201</v>
       </c>
       <c r="G79" s="24" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79">
-        <v>1</v>
-      </c>
-      <c r="K79" s="12">
-        <v>0.72</v>
+        <v>2</v>
+      </c>
+      <c r="K79" s="9">
+        <v>1.46</v>
       </c>
       <c r="L79" s="41">
-        <f t="shared" si="13"/>
-        <v>0.72</v>
+        <f t="shared" si="10"/>
+        <v>2.92</v>
       </c>
       <c r="M79" s="32">
-        <f t="shared" si="12"/>
-        <v>0.72</v>
-      </c>
-      <c r="O79" s="33" t="s">
-        <v>214</v>
+        <f>J79*K79</f>
+        <v>2.92</v>
+      </c>
+      <c r="O79" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="E80" t="s">
-        <v>52</v>
+        <v>220</v>
       </c>
       <c r="F80" t="s">
         <v>201</v>
       </c>
       <c r="G80" s="24" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="H80">
         <v>1</v>
@@ -4851,220 +4898,264 @@
       <c r="J80">
         <v>1</v>
       </c>
-      <c r="K80" s="25">
-        <v>2.83</v>
+      <c r="K80" s="9">
+        <v>5.34</v>
       </c>
       <c r="L80" s="41">
-        <f t="shared" si="13"/>
-        <v>2.83</v>
-      </c>
-      <c r="M80" s="32">
+        <f t="shared" si="10"/>
+        <v>5.34</v>
+      </c>
+      <c r="M80" s="35">
         <f>J80*K80</f>
-        <v>2.83</v>
-      </c>
-      <c r="O80" t="s">
-        <v>216</v>
+        <v>5.34</v>
+      </c>
+      <c r="O80" s="8" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>217</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E81" t="s">
-        <v>71</v>
+        <v>257</v>
       </c>
       <c r="F81" t="s">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="G81" s="24" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81">
         <v>1</v>
       </c>
       <c r="J81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K81" s="9">
-        <v>1.46</v>
+        <v>6.4</v>
       </c>
       <c r="L81" s="41">
-        <f t="shared" si="13"/>
-        <v>2.92</v>
-      </c>
-      <c r="M81" s="32">
+        <f>IF(H81&gt;0,K81/I81*H81,0)</f>
+        <v>6.4</v>
+      </c>
+      <c r="M81" s="35">
         <f>J81*K81</f>
-        <v>2.92</v>
-      </c>
-      <c r="O81" t="s">
-        <v>219</v>
-      </c>
+        <v>6.4</v>
+      </c>
+      <c r="O81" s="8"/>
     </row>
     <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E82" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
       <c r="F82" t="s">
         <v>201</v>
       </c>
       <c r="G82" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I82">
         <v>1</v>
       </c>
       <c r="J82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K82" s="9">
-        <v>5.34</v>
+        <v>2.31</v>
       </c>
       <c r="L82" s="41">
-        <f t="shared" si="13"/>
-        <v>5.34</v>
+        <f t="shared" si="10"/>
+        <v>6.93</v>
       </c>
       <c r="M82" s="35">
         <f>J82*K82</f>
-        <v>5.34</v>
+        <v>6.93</v>
       </c>
       <c r="O82" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83"/>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="C83" t="s">
-        <v>76</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D83"/>
       <c r="E83" t="s">
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="F83" t="s">
         <v>24</v>
       </c>
       <c r="G83" s="24" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83">
         <v>1</v>
       </c>
       <c r="J83">
-        <v>1</v>
-      </c>
-      <c r="K83" s="9">
-        <v>6.4</v>
+        <v>2</v>
+      </c>
+      <c r="K83" s="12">
+        <v>0.89</v>
       </c>
       <c r="L83" s="41">
         <f>IF(H83&gt;0,K83/I83*H83,0)</f>
-        <v>6.4</v>
-      </c>
-      <c r="M83" s="35">
-        <f>J83*K83</f>
-        <v>6.4</v>
-      </c>
-      <c r="O83" s="8"/>
-    </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+        <v>1.78</v>
+      </c>
+      <c r="M83" s="32">
+        <f t="shared" ref="M83:M87" si="11">J83*K83</f>
+        <v>1.78</v>
+      </c>
+      <c r="N83"/>
+      <c r="O83" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="P83"/>
+      <c r="Q83"/>
+      <c r="R83"/>
+      <c r="S83"/>
+      <c r="T83"/>
+      <c r="U83"/>
+      <c r="V83"/>
+      <c r="W83"/>
+      <c r="X83"/>
+      <c r="Y83"/>
+      <c r="Z83"/>
+      <c r="AA83"/>
+      <c r="AB83"/>
+      <c r="AC83"/>
+      <c r="AD83"/>
+      <c r="AE83"/>
+      <c r="AF83"/>
+      <c r="AG83"/>
+    </row>
+    <row r="84" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84"/>
       <c r="B84" t="s">
-        <v>90</v>
+        <v>347</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>346</v>
+      </c>
+      <c r="D84" t="s">
+        <v>57</v>
       </c>
       <c r="E84" t="s">
-        <v>91</v>
+        <v>345</v>
       </c>
       <c r="F84" t="s">
         <v>201</v>
       </c>
-      <c r="G84" s="24" t="s">
-        <v>222</v>
-      </c>
+      <c r="G84" s="24"/>
       <c r="H84">
-        <v>3</v>
-      </c>
-      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="I84" s="16">
         <v>1</v>
       </c>
       <c r="J84">
-        <v>3</v>
-      </c>
-      <c r="K84" s="9">
-        <v>2.31</v>
+        <v>1</v>
+      </c>
+      <c r="K84" s="12">
+        <v>0.89</v>
       </c>
       <c r="L84" s="41">
-        <f t="shared" si="13"/>
-        <v>6.93</v>
-      </c>
-      <c r="M84" s="35">
-        <f>J84*K84</f>
-        <v>6.93</v>
-      </c>
-      <c r="O84" s="8" t="s">
-        <v>223</v>
-      </c>
+        <f>IF(H84&gt;0,K84/H84*I84,0)</f>
+        <v>0.89</v>
+      </c>
+      <c r="M84" s="32">
+        <f t="shared" si="11"/>
+        <v>0.89</v>
+      </c>
+      <c r="N84"/>
+      <c r="O84" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="P84"/>
+      <c r="Q84"/>
+      <c r="R84"/>
+      <c r="S84"/>
+      <c r="T84"/>
+      <c r="U84"/>
+      <c r="V84"/>
+      <c r="W84"/>
+      <c r="X84"/>
+      <c r="Y84"/>
+      <c r="Z84"/>
+      <c r="AA84"/>
+      <c r="AB84"/>
+      <c r="AC84"/>
+      <c r="AD84"/>
+      <c r="AE84"/>
+      <c r="AF84"/>
+      <c r="AG84"/>
     </row>
     <row r="85" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85"/>
       <c r="B85" t="s">
-        <v>121</v>
+        <v>352</v>
       </c>
       <c r="C85" t="s">
-        <v>122</v>
-      </c>
-      <c r="D85"/>
+        <v>352</v>
+      </c>
+      <c r="D85" t="s">
+        <v>170</v>
+      </c>
       <c r="E85" t="s">
-        <v>224</v>
+        <v>353</v>
       </c>
       <c r="F85" t="s">
-        <v>24</v>
-      </c>
-      <c r="G85" s="24" t="s">
-        <v>225</v>
+        <v>201</v>
+      </c>
+      <c r="G85" s="54" t="s">
+        <v>354</v>
       </c>
       <c r="H85">
-        <v>2</v>
-      </c>
-      <c r="I85">
+        <v>6</v>
+      </c>
+      <c r="I85" s="16">
         <v>1</v>
       </c>
       <c r="J85">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K85" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="L85" s="41">
-        <f>IF(H85&gt;0,K85/I85*H85,0)</f>
-        <v>1.78</v>
-      </c>
-      <c r="M85" s="32">
-        <f t="shared" ref="M85:M89" si="14">J85*K85</f>
-        <v>1.78</v>
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L85" s="52">
+        <f>IF(H85&gt;0,K85/H85*I85,0)</f>
+        <v>1.4333333333333332E-2</v>
+      </c>
+      <c r="M85" s="25">
+        <f t="shared" si="11"/>
+        <v>0.51600000000000001</v>
       </c>
       <c r="N85"/>
       <c r="O85" s="33" t="s">
-        <v>226</v>
+        <v>351</v>
       </c>
       <c r="P85"/>
       <c r="Q85"/>
@@ -5088,44 +5179,46 @@
     <row r="86" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86"/>
       <c r="B86" t="s">
-        <v>349</v>
+        <v>159</v>
       </c>
       <c r="C86" t="s">
-        <v>348</v>
+        <v>159</v>
       </c>
       <c r="D86" t="s">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="E86" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="F86" t="s">
-        <v>201</v>
-      </c>
-      <c r="G86" s="24"/>
+        <v>24</v>
+      </c>
+      <c r="G86" s="54" t="s">
+        <v>356</v>
+      </c>
       <c r="H86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I86" s="16">
         <v>1</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K86" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="L86" s="41">
+        <v>0.2</v>
+      </c>
+      <c r="L86" s="52">
         <f>IF(H86&gt;0,K86/H86*I86,0)</f>
-        <v>0.89</v>
-      </c>
-      <c r="M86" s="32">
-        <f t="shared" si="14"/>
-        <v>0.89</v>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M86" s="25">
+        <f t="shared" si="11"/>
+        <v>1.2000000000000002</v>
       </c>
       <c r="N86"/>
       <c r="O86" s="33" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="P86"/>
       <c r="Q86"/>
@@ -5149,47 +5242,45 @@
     <row r="87" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87"/>
       <c r="B87" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C87" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>57</v>
       </c>
       <c r="E87" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c r="F87" t="s">
-        <v>201</v>
+        <v>24</v>
       </c>
       <c r="G87" s="54" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="H87">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I87" s="16">
         <v>1</v>
       </c>
       <c r="J87">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K87" s="12">
-        <v>8.5999999999999993E-2</v>
+        <v>0.96</v>
       </c>
       <c r="L87" s="52">
         <f>IF(H87&gt;0,K87/H87*I87,0)</f>
-        <v>1.4333333333333332E-2</v>
+        <v>0.96</v>
       </c>
       <c r="M87" s="25">
-        <f t="shared" si="14"/>
-        <v>0.51600000000000001</v>
+        <f t="shared" si="11"/>
+        <v>0.96</v>
       </c>
       <c r="N87"/>
-      <c r="O87" s="33" t="s">
-        <v>353</v>
-      </c>
+      <c r="O87" s="33"/>
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87"/>
@@ -5211,48 +5302,20 @@
     </row>
     <row r="88" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88"/>
-      <c r="B88" t="s">
-        <v>159</v>
-      </c>
-      <c r="C88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" t="s">
-        <v>170</v>
-      </c>
-      <c r="E88" t="s">
-        <v>355</v>
-      </c>
-      <c r="F88" t="s">
-        <v>24</v>
-      </c>
-      <c r="G88" s="54" t="s">
-        <v>358</v>
-      </c>
-      <c r="H88">
-        <v>6</v>
-      </c>
-      <c r="I88" s="16">
-        <v>1</v>
-      </c>
-      <c r="J88">
-        <v>6</v>
-      </c>
-      <c r="K88" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="L88" s="52">
-        <f>IF(H88&gt;0,K88/H88*I88,0)</f>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="M88" s="25">
-        <f t="shared" si="14"/>
-        <v>1.2000000000000002</v>
-      </c>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88" s="54"/>
+      <c r="H88"/>
+      <c r="I88" s="16"/>
+      <c r="J88"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="25"/>
       <c r="N88"/>
-      <c r="O88" s="33" t="s">
-        <v>357</v>
-      </c>
+      <c r="O88" s="33"/>
       <c r="P88"/>
       <c r="Q88"/>
       <c r="R88"/>
@@ -5274,11 +5337,4292 @@
     </row>
     <row r="89" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89" s="54"/>
+      <c r="H89"/>
+      <c r="I89" s="16"/>
+      <c r="J89"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="52"/>
+      <c r="M89" s="25"/>
+      <c r="N89"/>
+      <c r="O89" s="33"/>
+      <c r="P89"/>
+      <c r="Q89"/>
+      <c r="R89"/>
+      <c r="S89"/>
+      <c r="T89"/>
+      <c r="U89"/>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89"/>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
+      <c r="AC89"/>
+      <c r="AD89"/>
+      <c r="AE89"/>
+      <c r="AF89"/>
+      <c r="AG89"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>227</v>
+      </c>
+      <c r="F91" t="s">
+        <v>201</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <f t="shared" ref="J91" si="12">IF(H91&gt;0,CEILING(H91/I91,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K91" s="25">
+        <v>20</v>
+      </c>
+      <c r="L91" s="32">
+        <f>IF(H91&gt;0,K91/I91,0)</f>
+        <v>20</v>
+      </c>
+      <c r="M91" s="32">
+        <f t="shared" ref="M91" si="13">J91*K91</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>20</v>
+      </c>
+      <c r="B93" t="s">
+        <v>21</v>
+      </c>
+      <c r="C93" t="s">
+        <v>305</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
+      </c>
+      <c r="E93" t="s">
+        <v>23</v>
+      </c>
+      <c r="F93" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="51">
+        <v>4366</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <f>IF(H93&gt;0,CEILING(H93/I93,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K93" s="12"/>
+      <c r="L93" s="41">
+        <f t="shared" ref="L93:L95" si="14">IF(H93&gt;0,K93/I93*H93,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="41">
+        <f>J93*K93</f>
+        <v>0</v>
+      </c>
+      <c r="O93" s="33" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>26</v>
+      </c>
+      <c r="B94" t="s">
+        <v>27</v>
+      </c>
+      <c r="C94" t="s">
+        <v>308</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
+      </c>
+      <c r="E94" t="s">
+        <v>23</v>
+      </c>
+      <c r="F94" t="s">
+        <v>23</v>
+      </c>
+      <c r="G94" s="51">
+        <v>4414</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ref="J94:J95" si="15">IF(H94&gt;0,CEILING(H94/I94,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K94" s="12"/>
+      <c r="L94" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="41">
+        <f t="shared" ref="M94:M95" si="16">J94*K94</f>
+        <v>0</v>
+      </c>
+      <c r="O94" s="33" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" t="s">
+        <v>30</v>
+      </c>
+      <c r="C95" t="s">
+        <v>309</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+      <c r="E95" t="s">
+        <v>23</v>
+      </c>
+      <c r="F95" t="s">
+        <v>23</v>
+      </c>
+      <c r="G95" s="51">
+        <v>4633</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>1</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="K95" s="12"/>
+      <c r="L95" s="41">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M95" s="41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O95" s="33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" t="s">
+        <v>50</v>
+      </c>
+      <c r="C96" t="s">
+        <v>51</v>
+      </c>
+      <c r="E96" t="s">
+        <v>23</v>
+      </c>
+      <c r="F96" t="s">
+        <v>23</v>
+      </c>
+      <c r="G96" s="51">
+        <v>4399</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" s="25"/>
+      <c r="L96" s="41">
+        <f>IF(H96&gt;0,K96/I96*H96,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="32">
+        <f>J96*K96</f>
+        <v>0</v>
+      </c>
+      <c r="O96" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>55</v>
+      </c>
+      <c r="B97" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E97" t="s">
+        <v>23</v>
+      </c>
+      <c r="F97" t="s">
+        <v>23</v>
+      </c>
+      <c r="G97">
+        <v>4210</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>1</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97" s="25"/>
+      <c r="L97" s="41">
+        <f>IF(H97&gt;0,K97/I97*H97,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="32">
+        <f>J97*K97</f>
+        <v>0</v>
+      </c>
+      <c r="O97" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>44</v>
+      </c>
+      <c r="B98" t="s">
+        <v>316</v>
+      </c>
+      <c r="C98" t="s">
+        <v>324</v>
+      </c>
+      <c r="E98" t="s">
+        <v>23</v>
+      </c>
+      <c r="F98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G98">
+        <v>4209</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="L98" s="41">
+        <f>IF(H98&gt;0,K98/I98*H98,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="32">
+        <f>J98*K98</f>
+        <v>0</v>
+      </c>
+      <c r="O98" s="8" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>110</v>
+      </c>
+      <c r="B99" t="s">
+        <v>111</v>
+      </c>
+      <c r="C99" t="s">
+        <v>318</v>
+      </c>
+      <c r="D99" t="s">
+        <v>57</v>
+      </c>
+      <c r="E99" t="s">
+        <v>23</v>
+      </c>
+      <c r="F99" t="s">
+        <v>24</v>
+      </c>
+      <c r="G99" s="51">
+        <v>938</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99" s="40">
+        <f t="shared" ref="J99" si="17">IF(H99&gt;0,CEILING(H99/I99,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K99" s="12"/>
+      <c r="L99" s="41">
+        <f t="shared" ref="L99:L101" si="18">IF(H99&gt;0,K99/I99*H99,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="41">
+        <f t="shared" ref="M99:M101" si="19">J99*K99</f>
+        <v>0</v>
+      </c>
+      <c r="O99" s="33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>349</v>
+      </c>
+      <c r="C100" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="D100" t="s">
+        <v>57</v>
+      </c>
+      <c r="E100" t="s">
+        <v>23</v>
+      </c>
+      <c r="F100" t="s">
+        <v>23</v>
+      </c>
+      <c r="G100" s="51">
+        <v>1119</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
+        <v>10</v>
+      </c>
+      <c r="J100" s="40">
+        <v>1</v>
+      </c>
+      <c r="K100" s="12"/>
+      <c r="L100" s="41">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M100" s="41">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O100" s="33" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C101" s="53"/>
+      <c r="G101" s="51"/>
+      <c r="J101" s="40"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="52">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M101" s="52">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O101" s="33"/>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" t="s">
+        <v>64</v>
+      </c>
+      <c r="C103" t="s">
+        <v>65</v>
+      </c>
+      <c r="D103" t="s">
+        <v>22</v>
+      </c>
+      <c r="E103" t="s">
+        <v>52</v>
+      </c>
+      <c r="F103" t="s">
+        <v>321</v>
+      </c>
+      <c r="G103" s="24"/>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>2</v>
+      </c>
+      <c r="J103" s="40">
+        <f t="shared" ref="J103:J112" si="20">IF(H103&gt;0,CEILING(H103/I103,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K103" s="12"/>
+      <c r="L103" s="41">
+        <f t="shared" ref="L103:L112" si="21">IF(H103&gt;0,K103/I103*H103,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="41">
+        <f t="shared" ref="M103:M112" si="22">J103*K103</f>
+        <v>0</v>
+      </c>
+      <c r="O103" s="33" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>142</v>
+      </c>
+      <c r="B104" t="s">
+        <v>143</v>
+      </c>
+      <c r="C104" t="s">
+        <v>144</v>
+      </c>
+      <c r="D104" t="s">
+        <v>57</v>
+      </c>
+      <c r="E104" t="s">
+        <v>52</v>
+      </c>
+      <c r="F104" t="s">
+        <v>321</v>
+      </c>
+      <c r="G104" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104" s="40">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K104" s="12"/>
+      <c r="L104" s="41">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M104" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O104" s="33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J105" s="40">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L105" s="41">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M105" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>331</v>
+      </c>
+      <c r="C106" t="s">
+        <v>325</v>
+      </c>
+      <c r="D106" t="s">
+        <v>264</v>
+      </c>
+      <c r="E106" t="s">
+        <v>332</v>
+      </c>
+      <c r="F106" t="s">
+        <v>149</v>
+      </c>
+      <c r="H106">
+        <v>6</v>
+      </c>
+      <c r="I106">
+        <v>100</v>
+      </c>
+      <c r="J106" s="40">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>43.31</v>
+      </c>
+      <c r="L106" s="41">
+        <f t="shared" si="21"/>
+        <v>2.5986000000000002</v>
+      </c>
+      <c r="M106" s="41">
+        <f t="shared" si="22"/>
+        <v>43.31</v>
+      </c>
+      <c r="O106" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>295</v>
+      </c>
+      <c r="C107" t="s">
+        <v>363</v>
+      </c>
+      <c r="D107" t="s">
+        <v>264</v>
+      </c>
+      <c r="E107" t="s">
+        <v>339</v>
+      </c>
+      <c r="F107" t="s">
+        <v>149</v>
+      </c>
+      <c r="H107">
+        <v>2</v>
+      </c>
+      <c r="I107">
+        <v>12</v>
+      </c>
+      <c r="J107" s="40">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>13.99</v>
+      </c>
+      <c r="L107" s="41">
+        <f t="shared" si="21"/>
+        <v>2.3316666666666666</v>
+      </c>
+      <c r="M107" s="41">
+        <f t="shared" si="22"/>
+        <v>13.99</v>
+      </c>
+      <c r="O107" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>364</v>
+      </c>
+      <c r="C108" t="s">
+        <v>362</v>
+      </c>
+      <c r="D108" t="s">
+        <v>264</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="F108" t="s">
+        <v>149</v>
+      </c>
+      <c r="H108">
+        <v>5</v>
+      </c>
+      <c r="I108">
+        <v>10</v>
+      </c>
+      <c r="J108" s="40">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>20.27</v>
+      </c>
+      <c r="L108" s="41">
+        <f t="shared" si="21"/>
+        <v>10.135000000000002</v>
+      </c>
+      <c r="M108" s="41">
+        <f t="shared" si="22"/>
+        <v>20.27</v>
+      </c>
+      <c r="O108" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>326</v>
+      </c>
+      <c r="C109" t="s">
+        <v>326</v>
+      </c>
+      <c r="D109" t="s">
+        <v>264</v>
+      </c>
+      <c r="E109" t="s">
+        <v>334</v>
+      </c>
+      <c r="F109" t="s">
+        <v>149</v>
+      </c>
+      <c r="H109">
+        <v>3</v>
+      </c>
+      <c r="I109">
+        <v>500</v>
+      </c>
+      <c r="J109" s="40">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>16.36</v>
+      </c>
+      <c r="L109" s="41">
+        <f t="shared" si="21"/>
+        <v>9.8159999999999997E-2</v>
+      </c>
+      <c r="M109" s="41">
+        <f t="shared" si="22"/>
+        <v>16.36</v>
+      </c>
+      <c r="O109" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>343</v>
+      </c>
+      <c r="C110" t="s">
+        <v>329</v>
+      </c>
+      <c r="D110" t="s">
+        <v>264</v>
+      </c>
+      <c r="E110" t="s">
+        <v>342</v>
+      </c>
+      <c r="F110" t="s">
+        <v>149</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>10</v>
+      </c>
+      <c r="J110" s="40">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>12.31</v>
+      </c>
+      <c r="L110" s="41">
+        <f t="shared" si="21"/>
+        <v>1.2310000000000001</v>
+      </c>
+      <c r="M110" s="41">
+        <f t="shared" si="22"/>
+        <v>12.31</v>
+      </c>
+      <c r="O110" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J111" s="40">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L111" s="41">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M111" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J112" s="40">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L112" s="41">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M112" s="41">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="Q141" s="36"/>
+      <c r="R141" s="36"/>
+      <c r="S141" s="36"/>
+      <c r="T141" s="36"/>
+      <c r="U141" s="36"/>
+      <c r="V141" s="36"/>
+      <c r="W141" s="36"/>
+      <c r="X141" s="36"/>
+      <c r="Y141" s="36"/>
+      <c r="Z141" s="36"/>
+      <c r="AA141" s="36"/>
+      <c r="AB141" s="36"/>
+      <c r="AC141" s="36"/>
+      <c r="AD141" s="36"/>
+      <c r="AE141" s="36"/>
+      <c r="AF141" s="36"/>
+      <c r="AG141" s="36"/>
+    </row>
+    <row r="142" spans="16:33" x14ac:dyDescent="0.25">
+      <c r="P142" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A40:C40"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="O72" r:id="rId1" xr:uid="{0EA85019-4717-44EB-AA5C-DD13E2C29AC2}"/>
+    <hyperlink ref="O82" r:id="rId2" xr:uid="{F3F2B4EF-FD24-4168-BA79-948131F7CDDF}"/>
+    <hyperlink ref="O12" r:id="rId3" xr:uid="{FA9C2FCC-F97F-4FFA-84F8-F742208216A0}"/>
+    <hyperlink ref="O31" r:id="rId4" xr:uid="{42041E4E-B247-4AAA-909B-5B0604D1A078}"/>
+    <hyperlink ref="O28" r:id="rId5" xr:uid="{A6CED906-7553-48B9-A341-4F1DD947EB1B}"/>
+    <hyperlink ref="O83" r:id="rId6" xr:uid="{8E64E326-5A39-4EFA-B9C3-865582DF1B84}"/>
+    <hyperlink ref="O32" r:id="rId7" xr:uid="{503D0215-7EF7-4059-B3D2-CA8FC6701C81}"/>
+    <hyperlink ref="O77" r:id="rId8" xr:uid="{9515008D-1E8E-4F49-8ECF-AFB3A54DF2E2}"/>
+    <hyperlink ref="O34" r:id="rId9" xr:uid="{08290D44-9AF0-49BA-A09F-A784FD196691}"/>
+    <hyperlink ref="O11" r:id="rId10" xr:uid="{E3D3C3A8-244F-483A-B3B6-F7368766281C}"/>
+    <hyperlink ref="O38" r:id="rId11" xr:uid="{96B5D5B6-8088-4B78-BC4B-0A38EE1BAA63}"/>
+    <hyperlink ref="O35" r:id="rId12" xr:uid="{E9E88BE5-E678-477E-B247-AF80D73DA52A}"/>
+    <hyperlink ref="O43" r:id="rId13" xr:uid="{F4554E9E-BC3C-4F43-9FC6-6AF10ECCCF84}"/>
+    <hyperlink ref="O17" r:id="rId14" xr:uid="{8594E851-DCCF-4DB1-BD3D-89E6404B8634}"/>
+    <hyperlink ref="O18" r:id="rId15" xr:uid="{CC6A80C5-E613-4311-A95F-504882C05345}"/>
+    <hyperlink ref="O10" r:id="rId16" xr:uid="{74A0B927-4320-4DA9-9C25-C8DF27AF6BD2}"/>
+    <hyperlink ref="O8" r:id="rId17" xr:uid="{C8B13BE7-DF05-4975-A099-F6A9D1185151}"/>
+    <hyperlink ref="O27" r:id="rId18" xr:uid="{51D3FDD0-A28D-4788-B6E5-91257725C8A9}"/>
+    <hyperlink ref="O14" r:id="rId19" xr:uid="{56E080D5-9B59-4716-8BBC-A87B3DA63967}"/>
+    <hyperlink ref="O16" r:id="rId20" xr:uid="{3618AF82-FAE4-4C1B-AC46-4110C1ACCC75}"/>
+    <hyperlink ref="O25" r:id="rId21" xr:uid="{F0A526A1-B94A-4E13-A6B2-B7FB24C6DA78}"/>
+    <hyperlink ref="O13" r:id="rId22" xr:uid="{352BCCE0-6F37-4555-B229-74B39163EB49}"/>
+    <hyperlink ref="O37" r:id="rId23" xr:uid="{D9863FC7-75B0-40C7-995E-2778AC330712}"/>
+    <hyperlink ref="O30" r:id="rId24" xr:uid="{8B0B5989-DD08-4473-87DF-A51AB7547D96}"/>
+    <hyperlink ref="O26" r:id="rId25" xr:uid="{F9197EAF-6629-4D53-B483-DA1478BCCC0F}"/>
+    <hyperlink ref="O33" r:id="rId26" xr:uid="{0B42821F-FF9D-4413-AB21-E8365063A345}"/>
+    <hyperlink ref="O6" r:id="rId27" xr:uid="{342DE1DF-5C4D-4559-8C41-E73DB91351AC}"/>
+    <hyperlink ref="O7" r:id="rId28" xr:uid="{64BC9E11-C249-4846-8F8F-C12F9126E1E9}"/>
+    <hyperlink ref="O9" r:id="rId29" xr:uid="{81D3A66E-04E8-4CAC-8654-DDF5E203A2D6}"/>
+    <hyperlink ref="O74" r:id="rId30" xr:uid="{3E9DB8EB-4DF4-41DD-8268-64785498710C}"/>
+    <hyperlink ref="O76" r:id="rId31" xr:uid="{59BA742E-4451-409A-9044-54077C32E1ED}"/>
+    <hyperlink ref="O75" r:id="rId32" xr:uid="{81CC0116-70F9-4949-AB74-95E24523F7D3}"/>
+    <hyperlink ref="O20" r:id="rId33" xr:uid="{17648F37-F3D1-46B5-9ECB-0D0684361097}"/>
+    <hyperlink ref="O15" r:id="rId34" xr:uid="{60C055AF-8A4A-4C59-9400-D9667C5DDB2B}"/>
+    <hyperlink ref="O80" r:id="rId35" xr:uid="{47A1366A-E618-40FB-9CB2-DE5784980129}"/>
+    <hyperlink ref="O22" r:id="rId36" xr:uid="{77DE05D8-90A7-4E5A-8BF7-7684FAFACBB7}"/>
+    <hyperlink ref="O21" r:id="rId37" xr:uid="{50DA5734-BDCB-411B-A82A-B779AA4777BB}"/>
+    <hyperlink ref="O23" r:id="rId38" xr:uid="{C2E46646-A82A-403E-80BF-62F2131C5CD4}"/>
+    <hyperlink ref="O24" r:id="rId39" xr:uid="{C1EF2220-6872-4109-B88B-0C46B9E757CD}"/>
+    <hyperlink ref="O29" r:id="rId40" xr:uid="{EF561E0E-171B-4A6D-AF15-91C22BA06E98}"/>
+    <hyperlink ref="O36" r:id="rId41" xr:uid="{AA18F6FA-93A9-40D2-84BC-0669A5025E19}"/>
+    <hyperlink ref="O39" r:id="rId42" xr:uid="{6B9B2663-FFD8-4F15-955E-F209ED4827CE}"/>
+    <hyperlink ref="O41" r:id="rId43" xr:uid="{C8905E5A-24D5-46C3-A967-5D2359A332D5}"/>
+    <hyperlink ref="O98" r:id="rId44" xr:uid="{BDED2098-287D-42A0-90D1-6DE2AB5B31E7}"/>
+    <hyperlink ref="O42" r:id="rId45" xr:uid="{0124FBEA-8DBD-496B-BAB5-EFE3CFA80AE7}"/>
+    <hyperlink ref="E108" r:id="rId46" display="https://www.amazon.ca/s/ref=bl_dp_s_web_0?ie=UTF8&amp;search-alias=aps&amp;field-keywords=MycologyLids" xr:uid="{9E8F2383-7BB2-4C30-8FFE-9EA2B06CC32C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDFDD599-C177-4BBC-A644-7A0346B01187}">
+  <dimension ref="A1:AG145"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="4" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.5703125" customWidth="1"/>
+    <col min="15" max="15" width="78.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="89.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="35.25" x14ac:dyDescent="0.5">
+      <c r="B1" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="G2" s="11"/>
+      <c r="I2" s="6">
+        <f>SUM(I54:I70)</f>
+        <v>158</v>
+      </c>
+      <c r="L2" s="22">
+        <f>SUM(L6:L45,L48:L50,L54:L70)</f>
+        <v>176.62886666666662</v>
+      </c>
+      <c r="M2" s="5">
+        <f>SUM(M6:M70)</f>
+        <v>325.8399999999998</v>
+      </c>
+      <c r="N2" s="23">
+        <f>SUM(N54:N70)</f>
+        <v>0.62708333333333344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
+      <c r="O5" s="45"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="40">
+        <f>IF(H6&gt;0,CEILING(H6/I6,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K6" s="12">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="L6" s="41">
+        <f t="shared" ref="L6:L45" si="0">IF(H6&gt;0,K6/I6*H6,0)</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="M6" s="41">
+        <f>J6*K6</f>
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="40">
+        <f t="shared" ref="J7:J33" si="1">IF(H7&gt;0,CEILING(H7/I7,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="12">
+        <v>17.91</v>
+      </c>
+      <c r="L7" s="41">
+        <f t="shared" si="0"/>
+        <v>17.91</v>
+      </c>
+      <c r="M7" s="41">
+        <f t="shared" ref="M7:M33" si="2">J7*K7</f>
+        <v>17.91</v>
+      </c>
+      <c r="O7" s="33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="12">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="L8" s="41">
+        <f t="shared" si="0"/>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="M8" s="41">
+        <f t="shared" si="2"/>
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="O8" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="40">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="K9" s="12">
+        <v>3.41</v>
+      </c>
+      <c r="L9" s="41">
+        <f t="shared" si="0"/>
+        <v>13.64</v>
+      </c>
+      <c r="M9" s="41">
+        <f t="shared" si="2"/>
+        <v>13.64</v>
+      </c>
+      <c r="O9" s="33" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" s="40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K10" s="12">
+        <v>1.18</v>
+      </c>
+      <c r="L10" s="41">
+        <f t="shared" si="0"/>
+        <v>3.54</v>
+      </c>
+      <c r="M10" s="41">
+        <f t="shared" si="2"/>
+        <v>3.54</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K11" s="12">
+        <v>1.39</v>
+      </c>
+      <c r="L11" s="41">
+        <f t="shared" si="0"/>
+        <v>1.39</v>
+      </c>
+      <c r="M11" s="41">
+        <f t="shared" si="2"/>
+        <v>1.39</v>
+      </c>
+      <c r="O11" s="33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1.52</v>
+      </c>
+      <c r="L12" s="41">
+        <f t="shared" si="0"/>
+        <v>1.52</v>
+      </c>
+      <c r="M12" s="41">
+        <f t="shared" si="2"/>
+        <v>1.52</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K13" s="12">
+        <v>2.48</v>
+      </c>
+      <c r="L13" s="41">
+        <f t="shared" si="0"/>
+        <v>2.48</v>
+      </c>
+      <c r="M13" s="41">
+        <f t="shared" si="2"/>
+        <v>2.48</v>
+      </c>
+      <c r="O13" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>2</v>
+      </c>
+      <c r="J14" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="12">
+        <v>3.01</v>
+      </c>
+      <c r="L14" s="41">
+        <f t="shared" si="0"/>
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="M14" s="41">
+        <f t="shared" si="2"/>
+        <v>3.01</v>
+      </c>
+      <c r="O14" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>77</v>
+      </c>
+      <c r="E15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15" s="40">
+        <f>IF(H15&gt;0,CEILING(H15/I15,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="12">
+        <v>3.94</v>
+      </c>
+      <c r="L15" s="41">
+        <f>IF(H15&gt;0,K15/I15*H15,0)</f>
+        <v>3.94</v>
+      </c>
+      <c r="M15" s="41">
+        <f>J15*K15</f>
+        <v>3.94</v>
+      </c>
+      <c r="O15" s="33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K16" s="12">
+        <v>1.45</v>
+      </c>
+      <c r="L16" s="41">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="M16" s="41">
+        <f t="shared" si="2"/>
+        <v>2.9</v>
+      </c>
+      <c r="O16" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" t="s">
+        <v>149</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>30</v>
+      </c>
+      <c r="J17" s="40">
+        <f>IF(H17&gt;0,CEILING(H17/I17,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="9">
+        <v>11.99</v>
+      </c>
+      <c r="L17" s="41">
+        <f>IF(H17&gt;0,K17/I17*H17,0)</f>
+        <v>0.39966666666666667</v>
+      </c>
+      <c r="M17" s="41">
+        <f>J17*K17</f>
+        <v>11.99</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C18" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="37"/>
+      <c r="H18">
+        <v>50</v>
+      </c>
+      <c r="I18">
+        <v>3000</v>
+      </c>
+      <c r="J18" s="40">
+        <f>IF(H18&gt;0,CEILING(H18/I18,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="9">
+        <v>12.49</v>
+      </c>
+      <c r="L18" s="41">
+        <f>IF(H18&gt;0,K18/I18*H18,0)</f>
+        <v>0.20816666666666667</v>
+      </c>
+      <c r="M18" s="41">
+        <f>J18*K18</f>
+        <v>12.49</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>301</v>
+      </c>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="49"/>
+      <c r="M19" s="49"/>
+      <c r="O19" s="50"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20" s="40">
+        <f>IF(H20&gt;0,CEILING(H20/I20,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1.39</v>
+      </c>
+      <c r="L20" s="41">
+        <f>IF(H20&gt;0,K20/I20*H20,0)</f>
+        <v>1.39</v>
+      </c>
+      <c r="M20" s="41">
+        <f>J20*K20</f>
+        <v>1.39</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="12">
+        <v>15.85</v>
+      </c>
+      <c r="L21" s="41">
+        <f t="shared" si="0"/>
+        <v>15.85</v>
+      </c>
+      <c r="M21" s="41">
+        <f t="shared" si="2"/>
+        <v>15.85</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K22" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="L22" s="41">
+        <f t="shared" si="0"/>
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="M22" s="41">
+        <f t="shared" si="2"/>
+        <v>0.37</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23" s="40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K23" s="12">
+        <v>2.29</v>
+      </c>
+      <c r="L23" s="41">
+        <f t="shared" si="0"/>
+        <v>6.87</v>
+      </c>
+      <c r="M23" s="41">
+        <f t="shared" si="2"/>
+        <v>6.87</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K24" s="12">
+        <v>1.02</v>
+      </c>
+      <c r="L24" s="41">
+        <f t="shared" si="0"/>
+        <v>2.04</v>
+      </c>
+      <c r="M24" s="41">
+        <f t="shared" si="2"/>
+        <v>2.04</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" s="40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K25" s="12">
+        <v>0.88</v>
+      </c>
+      <c r="L25" s="41">
+        <f t="shared" si="0"/>
+        <v>1.76</v>
+      </c>
+      <c r="M25" s="41">
+        <f t="shared" si="2"/>
+        <v>1.76</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="12">
+        <v>0.19</v>
+      </c>
+      <c r="L26" s="41">
+        <f t="shared" si="0"/>
+        <v>0.19</v>
+      </c>
+      <c r="M26" s="42">
+        <f t="shared" si="2"/>
+        <v>0.19</v>
+      </c>
+      <c r="O26" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K27" s="12">
+        <v>30.47</v>
+      </c>
+      <c r="L27" s="41">
+        <f t="shared" si="0"/>
+        <v>30.47</v>
+      </c>
+      <c r="M27" s="41">
+        <f t="shared" si="2"/>
+        <v>30.47</v>
+      </c>
+      <c r="O27" s="33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K28" s="12">
+        <v>0.92</v>
+      </c>
+      <c r="L28" s="41">
+        <f t="shared" si="0"/>
+        <v>0.92</v>
+      </c>
+      <c r="M28" s="41">
+        <f t="shared" si="2"/>
+        <v>0.92</v>
+      </c>
+      <c r="O28" s="33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29" s="40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0.26</v>
+      </c>
+      <c r="L29" s="41">
+        <f t="shared" si="0"/>
+        <v>0.78</v>
+      </c>
+      <c r="M29" s="41">
+        <f t="shared" si="2"/>
+        <v>0.78</v>
+      </c>
+      <c r="O29" s="33" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>125</v>
+      </c>
+      <c r="B30" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" t="s">
+        <v>128</v>
+      </c>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" s="40">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="K30" s="12">
+        <v>0.16</v>
+      </c>
+      <c r="L30" s="41">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="M30" s="41">
+        <f t="shared" si="2"/>
+        <v>0.48</v>
+      </c>
+      <c r="O30" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C31" t="s">
+        <v>133</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H31">
+        <v>1</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K31" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="L31" s="41">
+        <f t="shared" si="0"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="M31" s="41">
+        <f t="shared" si="2"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K32" s="12">
+        <v>1.01</v>
+      </c>
+      <c r="L32" s="41">
+        <f t="shared" si="0"/>
+        <v>1.01</v>
+      </c>
+      <c r="M32" s="41">
+        <f t="shared" si="2"/>
+        <v>1.01</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" s="40">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K33" s="12">
+        <v>2.34</v>
+      </c>
+      <c r="L33" s="41">
+        <f t="shared" si="0"/>
+        <v>2.34</v>
+      </c>
+      <c r="M33" s="41">
+        <f t="shared" si="2"/>
+        <v>2.34</v>
+      </c>
+      <c r="O33" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
+        <v>159</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E34" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H34">
+        <v>7</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="40">
+        <f t="shared" ref="J34:J39" si="3">IF(H34&gt;0,CEILING(H34/I34,1),0)</f>
+        <v>7</v>
+      </c>
+      <c r="K34" s="9">
+        <v>0.19</v>
+      </c>
+      <c r="L34" s="41">
+        <f t="shared" ref="L34:L39" si="4">IF(H34&gt;0,K34/I34*H34,0)</f>
+        <v>1.33</v>
+      </c>
+      <c r="M34" s="41">
+        <f t="shared" ref="M34:M39" si="5">J34*K34</f>
+        <v>1.33</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>164</v>
+      </c>
+      <c r="B35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" t="s">
+        <v>161</v>
+      </c>
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>165</v>
+      </c>
+      <c r="H35">
+        <v>7</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" s="40">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="L35" s="41">
+        <f t="shared" si="4"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="M35" s="41">
+        <f t="shared" si="5"/>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>178</v>
+      </c>
+      <c r="B36" t="s">
+        <v>179</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D36" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" t="s">
+        <v>181</v>
+      </c>
+      <c r="F36" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="H36">
+        <v>2</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36" s="40">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K36" s="9">
+        <v>1.66</v>
+      </c>
+      <c r="L36" s="41">
+        <f t="shared" si="4"/>
+        <v>3.32</v>
+      </c>
+      <c r="M36" s="41">
+        <f t="shared" si="5"/>
+        <v>3.32</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>167</v>
+      </c>
+      <c r="B37" t="s">
+        <v>168</v>
+      </c>
+      <c r="C37" t="s">
+        <v>169</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" t="s">
+        <v>171</v>
+      </c>
+      <c r="F37" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" t="s">
+        <v>172</v>
+      </c>
+      <c r="H37">
+        <v>8</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37" s="40">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="L37" s="41">
+        <f t="shared" si="4"/>
+        <v>5.04</v>
+      </c>
+      <c r="M37" s="41">
+        <f t="shared" si="5"/>
+        <v>5.04</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" t="s">
+        <v>176</v>
+      </c>
+      <c r="F38" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>50</v>
+      </c>
+      <c r="J38" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="9">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="L38" s="41">
+        <f t="shared" si="4"/>
+        <v>0.75319999999999998</v>
+      </c>
+      <c r="M38" s="41">
+        <f t="shared" si="5"/>
+        <v>18.829999999999998</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" t="s">
+        <v>155</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>157</v>
+      </c>
+      <c r="E39" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" t="s">
+        <v>149</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39" s="40">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="9">
+        <v>12.95</v>
+      </c>
+      <c r="L39" s="41">
+        <f t="shared" si="4"/>
+        <v>12.95</v>
+      </c>
+      <c r="M39" s="41">
+        <f t="shared" si="5"/>
+        <v>12.95</v>
+      </c>
+      <c r="O39" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B40" s="58"/>
+      <c r="C40" s="58"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>361</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>361</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41" s="40">
+        <f>IF(H41&gt;0,CEILING(H41/I41,1),0)</f>
+        <v>6</v>
+      </c>
+      <c r="K41" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="L41" s="41">
+        <f>IF(H41&gt;0,K41/I41*H41,0)</f>
+        <v>1.62</v>
+      </c>
+      <c r="M41" s="41">
+        <f>J41*K41</f>
+        <v>1.62</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>295</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="D42" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="E42" t="s">
+        <v>298</v>
+      </c>
+      <c r="F42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42">
+        <v>6</v>
+      </c>
+      <c r="J42" s="40">
+        <f>IF(H42&gt;0,CEILING(H42/I42,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K42" s="9">
+        <v>12.49</v>
+      </c>
+      <c r="L42" s="41">
+        <f>IF(H42&gt;0,K42/I42*H42,0)</f>
+        <v>4.1633333333333331</v>
+      </c>
+      <c r="M42" s="41">
+        <f>J42*K42</f>
+        <v>12.49</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43">
+        <v>100</v>
+      </c>
+      <c r="J43" s="40">
+        <f>IF(H43&gt;0,CEILING(H43/I43,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K43" s="9">
+        <v>23.99</v>
+      </c>
+      <c r="L43" s="41">
+        <f t="shared" si="0"/>
+        <v>0.47979999999999995</v>
+      </c>
+      <c r="M43" s="41">
+        <f>J43*K43</f>
+        <v>23.99</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>269</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="F44" t="s">
+        <v>149</v>
+      </c>
+      <c r="G44" s="37"/>
+      <c r="H44">
+        <v>1</v>
+      </c>
+      <c r="I44">
+        <v>100</v>
+      </c>
+      <c r="J44" s="40">
+        <f>IF(H44&gt;0,CEILING(H44/I44,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K44" s="9">
+        <v>12.23</v>
+      </c>
+      <c r="L44" s="41">
+        <f>IF(H44&gt;0,K44/I44*H44,0)</f>
+        <v>0.12230000000000001</v>
+      </c>
+      <c r="M44" s="41">
+        <f>J44*K44</f>
+        <v>12.23</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="F45" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>100</v>
+      </c>
+      <c r="J45" s="40">
+        <f>IF(H45&gt;0,CEILING(H45/I45,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K45" s="9">
+        <v>39.99</v>
+      </c>
+      <c r="L45" s="41">
+        <f t="shared" si="0"/>
+        <v>2.3994</v>
+      </c>
+      <c r="M45" s="41">
+        <f>J45*K45</f>
+        <v>39.99</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J47" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="L47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R47" s="8"/>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>191</v>
+      </c>
+      <c r="B48" t="s">
+        <v>289</v>
+      </c>
+      <c r="C48" t="s">
+        <v>192</v>
+      </c>
+      <c r="D48" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" t="s">
+        <v>193</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <v>5</v>
+      </c>
+      <c r="J48">
+        <f t="shared" ref="J48:J50" si="6">IF(H48&gt;0,CEILING(H48/I48,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <f>IF(H48&gt;0,K48/I48*H48,0)</f>
+        <v>1</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48:M50" si="7">J48*K48</f>
+        <v>5</v>
+      </c>
+      <c r="O48" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="49" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" t="s">
+        <v>290</v>
+      </c>
+      <c r="D49" t="s">
+        <v>195</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <v>5</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>25</v>
+      </c>
+      <c r="L49">
+        <f>IF(H49&gt;0,K49/I49*H49,0)</f>
+        <v>5</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C50" t="s">
+        <v>291</v>
+      </c>
+      <c r="D50" t="s">
+        <v>195</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>25</v>
+      </c>
+      <c r="L50">
+        <f>IF(H50&gt;0,K50/I50*H50,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C51" s="20"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+    </row>
+    <row r="52" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C52" s="26">
+        <v>30</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="22"/>
+    </row>
+    <row r="53" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="N53" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="O53" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>284</v>
+      </c>
+      <c r="C54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" t="s">
+        <v>57</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>19</v>
+      </c>
+      <c r="K54" s="32">
+        <f>I54/1000*$C$52</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L54" s="32">
+        <f>K54</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M54" s="32">
+        <f>K54</f>
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="N54" s="27">
+        <v>2.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" t="s">
+        <v>230</v>
+      </c>
+      <c r="D55" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>26</v>
+      </c>
+      <c r="K55" s="32">
+        <f t="shared" ref="K55:K70" si="8">I55/1000*$C$52</f>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="L55" s="32">
+        <f t="shared" ref="L55:L70" si="9">K55</f>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="M55" s="32">
+        <f t="shared" ref="M55:M70" si="10">K55</f>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="N55" s="27">
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="Q55" s="43"/>
+      <c r="R55" s="43"/>
+    </row>
+    <row r="56" spans="2:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>286</v>
+      </c>
+      <c r="C56" t="s">
+        <v>231</v>
+      </c>
+      <c r="D56" t="s">
+        <v>57</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="K56" s="32">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="L56" s="32">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+      <c r="M56" s="32">
+        <f t="shared" si="10"/>
+        <v>0.06</v>
+      </c>
+      <c r="N56" s="27">
+        <v>6.5277777777777782E-2</v>
+      </c>
+      <c r="P56" s="43"/>
+    </row>
+    <row r="57" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>288</v>
+      </c>
+      <c r="C57" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" t="s">
+        <v>57</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>2</v>
+      </c>
+      <c r="K57" s="32">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="L57" s="32">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+      <c r="M57" s="32">
+        <f t="shared" si="10"/>
+        <v>0.06</v>
+      </c>
+      <c r="N57" s="27">
+        <v>8.819444444444445E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>287</v>
+      </c>
+      <c r="C58" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" t="s">
+        <v>57</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="K58" s="32">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="L58" s="32">
+        <f t="shared" si="9"/>
+        <v>0.06</v>
+      </c>
+      <c r="M58" s="32">
+        <f t="shared" si="10"/>
+        <v>0.06</v>
+      </c>
+      <c r="N58" s="27">
+        <v>9.0277777777777787E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>273</v>
+      </c>
+      <c r="C59" t="s">
+        <v>233</v>
+      </c>
+      <c r="D59" t="s">
+        <v>22</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="K59" s="32">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="L59" s="32">
+        <f t="shared" si="9"/>
+        <v>0.09</v>
+      </c>
+      <c r="M59" s="32">
+        <f t="shared" si="10"/>
+        <v>0.09</v>
+      </c>
+      <c r="N59" s="27">
+        <v>7.6388888888888886E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>272</v>
+      </c>
+      <c r="C60" t="s">
+        <v>233</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="K60" s="32">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="L60" s="32">
+        <f t="shared" si="9"/>
+        <v>0.09</v>
+      </c>
+      <c r="M60" s="32">
+        <f t="shared" si="10"/>
+        <v>0.09</v>
+      </c>
+      <c r="N60" s="27">
+        <v>7.6388888888888886E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>274</v>
+      </c>
+      <c r="C61" t="s">
+        <v>234</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="K61" s="32">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="L61" s="32">
+        <f t="shared" si="9"/>
+        <v>0.09</v>
+      </c>
+      <c r="M61" s="32">
+        <f t="shared" si="10"/>
+        <v>0.09</v>
+      </c>
+      <c r="N61" s="27">
+        <v>1.3194444444444444E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>275</v>
+      </c>
+      <c r="C62" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="K62" s="32">
+        <f t="shared" si="8"/>
+        <v>0.09</v>
+      </c>
+      <c r="L62" s="32">
+        <f t="shared" si="9"/>
+        <v>0.09</v>
+      </c>
+      <c r="M62" s="32">
+        <f t="shared" si="10"/>
+        <v>0.09</v>
+      </c>
+      <c r="N62" s="27">
+        <v>1.3194444444444444E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>276</v>
+      </c>
+      <c r="C63" t="s">
+        <v>235</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>4</v>
+      </c>
+      <c r="K63" s="32">
+        <f t="shared" si="8"/>
+        <v>0.12</v>
+      </c>
+      <c r="L63" s="32">
+        <f t="shared" si="9"/>
+        <v>0.12</v>
+      </c>
+      <c r="M63" s="32">
+        <f t="shared" si="10"/>
+        <v>0.12</v>
+      </c>
+      <c r="N63" s="27">
+        <v>1.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>282</v>
+      </c>
+      <c r="C64" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="K64" s="32">
+        <f t="shared" si="8"/>
+        <v>0.03</v>
+      </c>
+      <c r="L64" s="32">
+        <f t="shared" si="9"/>
+        <v>0.03</v>
+      </c>
+      <c r="M64" s="32">
+        <f t="shared" si="10"/>
+        <v>0.03</v>
+      </c>
+      <c r="N64" s="27">
+        <v>1.3888888888888889E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>277</v>
+      </c>
+      <c r="C65" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>5</v>
+      </c>
+      <c r="K65" s="32">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="L65" s="32">
+        <f t="shared" si="9"/>
+        <v>0.15</v>
+      </c>
+      <c r="M65" s="32">
+        <f t="shared" si="10"/>
+        <v>0.15</v>
+      </c>
+      <c r="N65" s="27">
+        <v>2.9861111111111113E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>278</v>
+      </c>
+      <c r="C66" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>14</v>
+      </c>
+      <c r="K66" s="32">
+        <f t="shared" si="8"/>
+        <v>0.42</v>
+      </c>
+      <c r="L66" s="32">
+        <f t="shared" si="9"/>
+        <v>0.42</v>
+      </c>
+      <c r="M66" s="32">
+        <f t="shared" si="10"/>
+        <v>0.42</v>
+      </c>
+      <c r="N66" s="27">
+        <v>4.027777777777778E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>279</v>
+      </c>
+      <c r="C67" t="s">
+        <v>241</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <v>26</v>
+      </c>
+      <c r="K67" s="32">
+        <f t="shared" si="8"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="L67" s="32">
+        <f t="shared" si="9"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="M67" s="32">
+        <f t="shared" si="10"/>
+        <v>0.77999999999999992</v>
+      </c>
+      <c r="N67" s="27">
+        <v>8.6805555555555566E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>280</v>
+      </c>
+      <c r="C68" t="s">
+        <v>238</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+      <c r="I68">
+        <v>17</v>
+      </c>
+      <c r="K68" s="32">
+        <f t="shared" si="8"/>
+        <v>0.51</v>
+      </c>
+      <c r="L68" s="32">
+        <f t="shared" si="9"/>
+        <v>0.51</v>
+      </c>
+      <c r="M68" s="32">
+        <f t="shared" si="10"/>
+        <v>0.51</v>
+      </c>
+      <c r="N68" s="27">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>281</v>
+      </c>
+      <c r="C69" t="s">
+        <v>239</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>6</v>
+      </c>
+      <c r="K69" s="32">
+        <f t="shared" si="8"/>
+        <v>0.18</v>
+      </c>
+      <c r="L69" s="32">
+        <f t="shared" si="9"/>
+        <v>0.18</v>
+      </c>
+      <c r="M69" s="32">
+        <f t="shared" si="10"/>
+        <v>0.18</v>
+      </c>
+      <c r="N69" s="27">
+        <v>2.2916666666666669E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>283</v>
+      </c>
+      <c r="C70" t="s">
+        <v>242</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70">
+        <v>1</v>
+      </c>
+      <c r="I70">
+        <v>22</v>
+      </c>
+      <c r="K70" s="32">
+        <f t="shared" si="8"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="L70" s="32">
+        <f t="shared" si="9"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="M70" s="32">
+        <f t="shared" si="10"/>
+        <v>0.65999999999999992</v>
+      </c>
+      <c r="N70" s="27">
+        <v>0.10208333333333335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="28" t="s">
+        <v>200</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+    </row>
+    <row r="72" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="29"/>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B73" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>305</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" t="s">
+        <v>201</v>
+      </c>
+      <c r="G73" t="s">
+        <v>202</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <f t="shared" ref="J73:J75" si="11">IF(H73&gt;0,CEILING(H73/I73,1),0)</f>
+        <v>1</v>
+      </c>
+      <c r="K73" s="25">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="L73" s="41">
+        <f>IF(H73&gt;0,K73/I73*H73,0)</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="M73" s="32">
+        <f t="shared" ref="M73:M79" si="12">J73*K73</f>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="O73" s="33" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>308</v>
+      </c>
+      <c r="E74" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" t="s">
+        <v>201</v>
+      </c>
+      <c r="G74" t="s">
+        <v>204</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" s="12">
+        <v>18.13</v>
+      </c>
+      <c r="L74" s="41">
+        <f t="shared" ref="L74:L84" si="13">IF(H74&gt;0,K74/I74*H74,0)</f>
+        <v>18.13</v>
+      </c>
+      <c r="M74" s="32">
+        <f t="shared" si="12"/>
+        <v>18.13</v>
+      </c>
+      <c r="O74" s="33" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" t="s">
+        <v>309</v>
+      </c>
+      <c r="E75" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" t="s">
+        <v>201</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="K75" s="12">
+        <v>10.08</v>
+      </c>
+      <c r="L75" s="41">
+        <f t="shared" si="13"/>
+        <v>10.08</v>
+      </c>
+      <c r="M75" s="32">
+        <f t="shared" si="12"/>
+        <v>10.08</v>
+      </c>
+      <c r="O75" s="33" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>55</v>
+      </c>
+      <c r="B76" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C76" t="s">
+        <v>208</v>
+      </c>
+      <c r="E76" t="s">
+        <v>23</v>
+      </c>
+      <c r="F76" t="s">
+        <v>201</v>
+      </c>
+      <c r="G76" t="s">
+        <v>209</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" s="25">
+        <v>1.38</v>
+      </c>
+      <c r="L76" s="41">
+        <f t="shared" si="13"/>
+        <v>1.38</v>
+      </c>
+      <c r="M76" s="32">
+        <f t="shared" si="12"/>
+        <v>1.38</v>
+      </c>
+      <c r="O76" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>49</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77" t="s">
+        <v>51</v>
+      </c>
+      <c r="E77" t="s">
+        <v>23</v>
+      </c>
+      <c r="F77" t="s">
+        <v>201</v>
+      </c>
+      <c r="G77" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" s="25">
+        <v>1.38</v>
+      </c>
+      <c r="L77" s="41">
+        <f>IF(H77&gt;0,K77/I77*H77,0)</f>
+        <v>1.38</v>
+      </c>
+      <c r="M77" s="32">
+        <f>J77*K77</f>
+        <v>1.38</v>
+      </c>
+      <c r="O77" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>49</v>
+      </c>
+      <c r="B78" t="s">
+        <v>50</v>
+      </c>
+      <c r="C78" t="s">
+        <v>51</v>
+      </c>
+      <c r="E78" t="s">
+        <v>52</v>
+      </c>
+      <c r="F78" t="s">
+        <v>210</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>1</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78" s="25">
+        <v>1.95</v>
+      </c>
+      <c r="L78" s="41">
+        <f t="shared" si="13"/>
+        <v>1.95</v>
+      </c>
+      <c r="M78" s="32">
+        <f t="shared" si="12"/>
+        <v>1.95</v>
+      </c>
+      <c r="O78" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>211</v>
+      </c>
+      <c r="C79" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" t="s">
+        <v>24</v>
+      </c>
+      <c r="G79" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79" s="12">
+        <v>0.72</v>
+      </c>
+      <c r="L79" s="41">
+        <f t="shared" si="13"/>
+        <v>0.72</v>
+      </c>
+      <c r="M79" s="32">
+        <f t="shared" si="12"/>
+        <v>0.72</v>
+      </c>
+      <c r="O79" s="33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>64</v>
+      </c>
+      <c r="C80" t="s">
+        <v>65</v>
+      </c>
+      <c r="E80" t="s">
+        <v>52</v>
+      </c>
+      <c r="F80" t="s">
+        <v>201</v>
+      </c>
+      <c r="G80" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" s="25">
+        <v>2.83</v>
+      </c>
+      <c r="L80" s="41">
+        <f t="shared" si="13"/>
+        <v>2.83</v>
+      </c>
+      <c r="M80" s="32">
+        <f>J80*K80</f>
+        <v>2.83</v>
+      </c>
+      <c r="O80" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>217</v>
+      </c>
+      <c r="C81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" t="s">
+        <v>201</v>
+      </c>
+      <c r="G81" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="H81">
+        <v>2</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81" s="9">
+        <v>1.46</v>
+      </c>
+      <c r="L81" s="41">
+        <f t="shared" si="13"/>
+        <v>2.92</v>
+      </c>
+      <c r="M81" s="32">
+        <f>J81*K81</f>
+        <v>2.92</v>
+      </c>
+      <c r="O81" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" t="s">
+        <v>76</v>
+      </c>
+      <c r="E82" t="s">
+        <v>220</v>
+      </c>
+      <c r="F82" t="s">
+        <v>201</v>
+      </c>
+      <c r="G82" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82" s="9">
+        <v>5.34</v>
+      </c>
+      <c r="L82" s="41">
+        <f t="shared" si="13"/>
+        <v>5.34</v>
+      </c>
+      <c r="M82" s="35">
+        <f>J82*K82</f>
+        <v>5.34</v>
+      </c>
+      <c r="O82" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" t="s">
+        <v>76</v>
+      </c>
+      <c r="E83" t="s">
+        <v>257</v>
+      </c>
+      <c r="F83" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="24" t="s">
+        <v>258</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="L83" s="41">
+        <f>IF(H83&gt;0,K83/I83*H83,0)</f>
+        <v>6.4</v>
+      </c>
+      <c r="M83" s="35">
+        <f>J83*K83</f>
+        <v>6.4</v>
+      </c>
+      <c r="O83" s="8"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" t="s">
+        <v>91</v>
+      </c>
+      <c r="F84" t="s">
+        <v>201</v>
+      </c>
+      <c r="G84" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="H84">
+        <v>3</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+      <c r="K84" s="9">
+        <v>2.31</v>
+      </c>
+      <c r="L84" s="41">
+        <f t="shared" si="13"/>
+        <v>6.93</v>
+      </c>
+      <c r="M84" s="35">
+        <f>J84*K84</f>
+        <v>6.93</v>
+      </c>
+      <c r="O84" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="85" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85"/>
+      <c r="B85" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" t="s">
+        <v>122</v>
+      </c>
+      <c r="D85"/>
+      <c r="E85" t="s">
+        <v>224</v>
+      </c>
+      <c r="F85" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="H85">
+        <v>2</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>2</v>
+      </c>
+      <c r="K85" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="L85" s="41">
+        <f>IF(H85&gt;0,K85/I85*H85,0)</f>
+        <v>1.78</v>
+      </c>
+      <c r="M85" s="32">
+        <f t="shared" ref="M85:M89" si="14">J85*K85</f>
+        <v>1.78</v>
+      </c>
+      <c r="N85"/>
+      <c r="O85" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="P85"/>
+      <c r="Q85"/>
+      <c r="R85"/>
+      <c r="S85"/>
+      <c r="T85"/>
+      <c r="U85"/>
+      <c r="V85"/>
+      <c r="W85"/>
+      <c r="X85"/>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85"/>
+      <c r="AB85"/>
+      <c r="AC85"/>
+      <c r="AD85"/>
+      <c r="AE85"/>
+      <c r="AF85"/>
+      <c r="AG85"/>
+    </row>
+    <row r="86" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86"/>
+      <c r="B86" t="s">
+        <v>347</v>
+      </c>
+      <c r="C86" t="s">
+        <v>346</v>
+      </c>
+      <c r="D86" t="s">
+        <v>57</v>
+      </c>
+      <c r="E86" t="s">
+        <v>345</v>
+      </c>
+      <c r="F86" t="s">
+        <v>201</v>
+      </c>
+      <c r="G86" s="24"/>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86" s="16">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" s="12">
+        <v>0.89</v>
+      </c>
+      <c r="L86" s="41">
+        <f>IF(H86&gt;0,K86/H86*I86,0)</f>
+        <v>0.89</v>
+      </c>
+      <c r="M86" s="32">
+        <f t="shared" si="14"/>
+        <v>0.89</v>
+      </c>
+      <c r="N86"/>
+      <c r="O86" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="P86"/>
+      <c r="Q86"/>
+      <c r="R86"/>
+      <c r="S86"/>
+      <c r="T86"/>
+      <c r="U86"/>
+      <c r="V86"/>
+      <c r="W86"/>
+      <c r="X86"/>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+      <c r="AC86"/>
+      <c r="AD86"/>
+      <c r="AE86"/>
+      <c r="AF86"/>
+      <c r="AG86"/>
+    </row>
+    <row r="87" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87"/>
+      <c r="B87" t="s">
+        <v>352</v>
+      </c>
+      <c r="C87" t="s">
+        <v>352</v>
+      </c>
+      <c r="D87" t="s">
+        <v>170</v>
+      </c>
+      <c r="E87" t="s">
+        <v>353</v>
+      </c>
+      <c r="F87" t="s">
+        <v>201</v>
+      </c>
+      <c r="G87" s="54" t="s">
+        <v>354</v>
+      </c>
+      <c r="H87">
+        <v>6</v>
+      </c>
+      <c r="I87" s="16">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>6</v>
+      </c>
+      <c r="K87" s="12">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="L87" s="52">
+        <f>IF(H87&gt;0,K87/H87*I87,0)</f>
+        <v>1.4333333333333332E-2</v>
+      </c>
+      <c r="M87" s="25">
+        <f t="shared" si="14"/>
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="N87"/>
+      <c r="O87" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="P87"/>
+      <c r="Q87"/>
+      <c r="R87"/>
+      <c r="S87"/>
+      <c r="T87"/>
+      <c r="U87"/>
+      <c r="V87"/>
+      <c r="W87"/>
+      <c r="X87"/>
+      <c r="Y87"/>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+      <c r="AC87"/>
+      <c r="AD87"/>
+      <c r="AE87"/>
+      <c r="AF87"/>
+      <c r="AG87"/>
+    </row>
+    <row r="88" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88"/>
+      <c r="B88" t="s">
+        <v>159</v>
+      </c>
+      <c r="C88" t="s">
+        <v>159</v>
+      </c>
+      <c r="D88" t="s">
+        <v>170</v>
+      </c>
+      <c r="E88" t="s">
+        <v>353</v>
+      </c>
+      <c r="F88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G88" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88" s="16">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>6</v>
+      </c>
+      <c r="K88" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="L88" s="52">
+        <f>IF(H88&gt;0,K88/H88*I88,0)</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="M88" s="25">
+        <f t="shared" si="14"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="N88"/>
+      <c r="O88" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="P88"/>
+      <c r="Q88"/>
+      <c r="R88"/>
+      <c r="S88"/>
+      <c r="T88"/>
+      <c r="U88"/>
+      <c r="V88"/>
+      <c r="W88"/>
+      <c r="X88"/>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88"/>
+      <c r="AB88"/>
+      <c r="AC88"/>
+      <c r="AD88"/>
+      <c r="AE88"/>
+      <c r="AF88"/>
+      <c r="AG88"/>
+    </row>
+    <row r="89" spans="1:33" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89"/>
       <c r="B89" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C89" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D89" t="s">
         <v>57</v>
@@ -5290,7 +9634,7 @@
         <v>24</v>
       </c>
       <c r="G89" s="54" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H89">
         <v>1</v>
@@ -5440,7 +9784,7 @@
         <v>21</v>
       </c>
       <c r="C95" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D95" t="s">
         <v>22</v>
@@ -5474,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="33" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
@@ -5485,7 +9829,7 @@
         <v>27</v>
       </c>
       <c r="C96" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D96" t="s">
         <v>22</v>
@@ -5519,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="33" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
@@ -5530,7 +9874,7 @@
         <v>30</v>
       </c>
       <c r="C97" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D97" t="s">
         <v>22</v>
@@ -5564,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="33" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
@@ -5605,7 +9949,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="8" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
@@ -5646,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
@@ -5654,10 +9998,10 @@
         <v>44</v>
       </c>
       <c r="B100" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C100" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E100" t="s">
         <v>23</v>
@@ -5686,7 +10030,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="8" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
@@ -5697,7 +10041,7 @@
         <v>111</v>
       </c>
       <c r="C101" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D101" t="s">
         <v>57</v>
@@ -5731,15 +10075,15 @@
         <v>0</v>
       </c>
       <c r="O101" s="33" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C102" s="53" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D102" t="s">
         <v>57</v>
@@ -5772,7 +10116,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="33" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
@@ -5807,7 +10151,7 @@
         <v>52</v>
       </c>
       <c r="F105" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="G105" s="24"/>
       <c r="H105">
@@ -5830,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="33" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
@@ -5850,10 +10194,10 @@
         <v>52</v>
       </c>
       <c r="F106" t="s">
+        <v>321</v>
+      </c>
+      <c r="G106" s="24" t="s">
         <v>323</v>
-      </c>
-      <c r="G106" s="24" t="s">
-        <v>325</v>
       </c>
       <c r="H106">
         <v>1</v>
@@ -5875,7 +10219,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="33" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
@@ -5894,16 +10238,16 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C108" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D108" t="s">
         <v>264</v>
       </c>
       <c r="E108" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F108" t="s">
         <v>149</v>
@@ -5930,7 +10274,7 @@
         <v>43.31</v>
       </c>
       <c r="O108" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
@@ -5944,7 +10288,7 @@
         <v>264</v>
       </c>
       <c r="E109" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F109" t="s">
         <v>149</v>
@@ -5971,21 +10315,21 @@
         <v>13.99</v>
       </c>
       <c r="O109" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C110" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D110" t="s">
         <v>264</v>
       </c>
       <c r="E110" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F110" t="s">
         <v>149</v>
@@ -6012,21 +10356,21 @@
         <v>16.36</v>
       </c>
       <c r="O110" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C111" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D111" t="s">
         <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F111" t="s">
         <v>149</v>
@@ -6053,7 +10397,7 @@
         <v>15.51</v>
       </c>
       <c r="O111" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
@@ -6061,7 +10405,7 @@
         <v>269</v>
       </c>
       <c r="C112" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D112" t="s">
         <v>264</v>
@@ -6091,21 +10435,21 @@
         <v>19.489999999999998</v>
       </c>
       <c r="O112" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C113" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D113" t="s">
         <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F113" t="s">
         <v>149</v>
@@ -6132,7 +10476,7 @@
         <v>12.31</v>
       </c>
       <c r="O113" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="114" spans="2:15" x14ac:dyDescent="0.25">
@@ -6244,19 +10588,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001DC44D19606E8540AF995795CBBBCE63" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="72518c49cc9021390dbba2958e7a3f0c">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e718a8af-5d48-45b1-a7fb-cef00c107a7a" xmlns:ns3="715913e6-4bf0-458f-8160-f18e142d04ff" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="175092e7cad6d6b91dac7c2ca96d6cf8" ns2:_="" ns3:_="">
-    <xsd:import namespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a"/>
-    <xsd:import namespace="715913e6-4bf0-458f-8160-f18e142d04ff"/>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B51EC7ECFAC78D4E8EF6CBAFFF0B3505" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c16a8de1b3ad07fcfe40131daee80152">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" xmlns:ns3="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="85720a748046338a72a4f25fe522aa39" ns2:_="" ns3:_="">
+    <xsd:import namespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <xsd:import namespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -6267,12 +10602,14 @@
                 <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
@@ -6284,7 +10621,7 @@
       </xsd:complexType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e718a8af-5d48-45b1-a7fb-cef00c107a7a" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
@@ -6309,60 +10646,86 @@
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+    <xsd:element name="MediaServiceGenerationTime" ma:index="13" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="14" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+    <xsd:element name="MediaServiceEventHashCode" ma:index="14" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="15" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="15" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+    <xsd:element name="MediaServiceLocation" ma:index="16" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+    <xsd:element name="MediaLengthInSeconds" ma:index="19" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="19" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="21" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="26ec1fed-e6ae-4c84-a4ac-123136fd9316" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
         </xsd:sequence>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="21" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="22" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="715913e6-4bf0-458f-8160-f18e142d04ff" elementFormDefault="qualified">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="20" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{b05470fb-f248-421d-a4ae-c1bb0b45488d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="715913e6-4bf0-458f-8160-f18e142d04ff">
+    <xsd:element name="SharedWithUsers" ma:index="17" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="18" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="22" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{230263d0-9f1a-4e63-a49c-f06b563fb00a}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="72c39c84-b0a3-45a2-a38c-ff46bb47f11f">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:MultiChoiceLookup">
@@ -6473,11 +10836,20 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <TaxCatchAll xmlns="715913e6-4bf0-458f-8160-f18e142d04ff" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e718a8af-5d48-45b1-a7fb-cef00c107a7a">
+    <TaxCatchAll xmlns="72c39c84-b0a3-45a2-a38c-ff46bb47f11f" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e">
       <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
@@ -6485,15 +10857,30 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0EBF691-FFB2-4DC2-A692-11B401C25213}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cf9f6c1f-8ad0-4eb8-bb2b-fb0b622a341e"/>
+    <ds:schemaRef ds:uri="72c39c84-b0a3-45a2-a38c-ff46bb47f11f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4740145F-09D2-466B-B9A2-2798696B0ADF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{57C9FC67-5541-4CD4-9C4D-BDD1FC789ADC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
